--- a/LIST2.xlsx
+++ b/LIST2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sinar Auto IT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\cartradepro_api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8901828C-536D-4BCE-90C4-598EA3EA8C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1150027-7F23-4135-A67E-88236817F774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4766" uniqueCount="2278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4766" uniqueCount="2279">
   <si>
     <r>
       <rPr>
@@ -24593,6 +24593,9 @@
       </rPr>
       <t>STATUS</t>
     </r>
+  </si>
+  <si>
+    <t>EDIT-BOOKING</t>
   </si>
 </sst>
 </file>
@@ -24910,7 +24913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -25226,34 +25229,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -25268,9 +25253,6 @@
     <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -25279,9 +25261,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -25292,85 +25271,112 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -25742,8 +25748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="O333" sqref="O333"/>
+    <sheetView tabSelected="1" topLeftCell="F197" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25759,30 +25765,30 @@
     <col min="9" max="9" width="5.83203125" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" style="153" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.33203125" style="154" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
     </row>
     <row r="2" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -25818,7 +25824,7 @@
       <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="131" t="s">
+      <c r="L2" s="123" t="s">
         <v>2277</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -25829,23 +25835,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
     </row>
     <row r="4" spans="1:15" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
@@ -25879,28 +25885,28 @@
       <c r="K4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="132"/>
+      <c r="L4" s="124"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -25932,7 +25938,7 @@
       <c r="K6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="133"/>
+      <c r="L6" s="125"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
     </row>
@@ -25966,7 +25972,7 @@
       <c r="K7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="133"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
@@ -26002,7 +26008,7 @@
       <c r="K8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="133"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
     </row>
@@ -26038,7 +26044,7 @@
       <c r="K9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="133"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
@@ -26070,7 +26076,7 @@
       <c r="K10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="133"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
     </row>
@@ -26104,7 +26110,7 @@
       <c r="K11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="134" t="s">
+      <c r="L11" s="126" t="s">
         <v>64</v>
       </c>
       <c r="M11" s="19"/>
@@ -26140,7 +26146,7 @@
       <c r="K12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="133"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
     </row>
@@ -26176,7 +26182,7 @@
       <c r="K13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="133"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
     </row>
@@ -26212,7 +26218,7 @@
       <c r="K14" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="133"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
     </row>
@@ -26250,7 +26256,7 @@
       <c r="K15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="134" t="s">
+      <c r="L15" s="126" t="s">
         <v>87</v>
       </c>
       <c r="M15" s="19"/>
@@ -26286,7 +26292,7 @@
       <c r="K16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="133"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
     </row>
@@ -26318,7 +26324,7 @@
       <c r="K17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="133"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
     </row>
@@ -26354,7 +26360,7 @@
       <c r="K18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="133"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
     </row>
@@ -26388,7 +26394,7 @@
       <c r="K19" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="L19" s="133"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
@@ -26424,7 +26430,7 @@
       <c r="K20" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="133"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
@@ -26460,7 +26466,7 @@
       <c r="K21" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L21" s="133"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
     </row>
@@ -26496,7 +26502,7 @@
       <c r="K22" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L22" s="132"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
@@ -26532,7 +26538,7 @@
       <c r="K23" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="135" t="s">
+      <c r="L23" s="127" t="s">
         <v>128</v>
       </c>
       <c r="M23" s="19"/>
@@ -26570,7 +26576,7 @@
       <c r="K24" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="135" t="s">
+      <c r="L24" s="127" t="s">
         <v>132</v>
       </c>
       <c r="M24" s="19"/>
@@ -26608,7 +26614,7 @@
       <c r="K25" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L25" s="133"/>
+      <c r="L25" s="125"/>
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
@@ -26644,7 +26650,7 @@
       <c r="K26" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L26" s="133"/>
+      <c r="L26" s="125"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
@@ -26680,7 +26686,7 @@
       <c r="K27" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="L27" s="134" t="s">
+      <c r="L27" s="126" t="s">
         <v>147</v>
       </c>
       <c r="M27" s="19"/>
@@ -26718,7 +26724,7 @@
       <c r="K28" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L28" s="135" t="s">
+      <c r="L28" s="127" t="s">
         <v>151</v>
       </c>
       <c r="M28" s="19"/>
@@ -26756,7 +26762,7 @@
       <c r="K29" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="L29" s="136"/>
+      <c r="L29" s="128"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
     </row>
@@ -26792,7 +26798,7 @@
       <c r="K30" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="133"/>
+      <c r="L30" s="125"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
@@ -26828,7 +26834,7 @@
       <c r="K31" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="L31" s="133"/>
+      <c r="L31" s="125"/>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
     </row>
@@ -26862,7 +26868,7 @@
       <c r="K32" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="L32" s="133"/>
+      <c r="L32" s="125"/>
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
@@ -26896,7 +26902,7 @@
       <c r="K33" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="L33" s="133"/>
+      <c r="L33" s="125"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
     </row>
@@ -26932,7 +26938,7 @@
       <c r="K34" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="133"/>
+      <c r="L34" s="125"/>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
@@ -26968,7 +26974,7 @@
       <c r="K35" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="134" t="s">
+      <c r="L35" s="126" t="s">
         <v>185</v>
       </c>
       <c r="M35" s="15"/>
@@ -27006,7 +27012,7 @@
       <c r="K36" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L36" s="135" t="s">
+      <c r="L36" s="127" t="s">
         <v>128</v>
       </c>
       <c r="M36" s="19"/>
@@ -27044,28 +27050,28 @@
       <c r="K37" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L37" s="133"/>
+      <c r="L37" s="125"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="28">
@@ -27097,28 +27103,28 @@
       <c r="K39" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="L39" s="133"/>
+      <c r="L39" s="125"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="121"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
@@ -27150,7 +27156,7 @@
       <c r="K41" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="L41" s="133"/>
+      <c r="L41" s="125"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
     </row>
@@ -27188,7 +27194,7 @@
       <c r="K42" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L42" s="133"/>
+      <c r="L42" s="125"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
     </row>
@@ -27222,30 +27228,30 @@
       <c r="K43" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="L43" s="137" t="s">
+      <c r="L43" s="129" t="s">
         <v>221</v>
       </c>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="128"/>
-      <c r="O44" s="128"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
@@ -27277,7 +27283,7 @@
       <c r="K45" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="L45" s="133"/>
+      <c r="L45" s="125"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
     </row>
@@ -27313,7 +27319,7 @@
       <c r="K46" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L46" s="132"/>
+      <c r="L46" s="124"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
     </row>
@@ -27349,7 +27355,7 @@
       <c r="K47" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="L47" s="133"/>
+      <c r="L47" s="125"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
     </row>
@@ -27387,7 +27393,7 @@
       <c r="K48" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="L48" s="132"/>
+      <c r="L48" s="124"/>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
     </row>
@@ -27423,11 +27429,11 @@
       <c r="K49" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="L49" s="132"/>
+      <c r="L49" s="124"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="1:14" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>43</v>
       </c>
@@ -27459,7 +27465,7 @@
       <c r="K50" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="L50" s="132"/>
+      <c r="L50" s="124"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
     </row>
@@ -27493,7 +27499,7 @@
       <c r="K51" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="L51" s="132"/>
+      <c r="L51" s="124"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
     </row>
@@ -27527,7 +27533,7 @@
       <c r="K52" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="L52" s="133"/>
+      <c r="L52" s="125"/>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
     </row>
@@ -27563,11 +27569,11 @@
       <c r="K53" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="L53" s="133"/>
+      <c r="L53" s="125"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
     </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>47</v>
       </c>
@@ -27599,7 +27605,7 @@
       <c r="K54" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="L54" s="133"/>
+      <c r="L54" s="125"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
     </row>
@@ -27633,11 +27639,11 @@
       <c r="K55" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="L55" s="133"/>
+      <c r="L55" s="125"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
     </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>49</v>
       </c>
@@ -27671,7 +27677,7 @@
       <c r="K56" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="L56" s="134" t="s">
+      <c r="L56" s="126" t="s">
         <v>284</v>
       </c>
       <c r="M56" s="19"/>
@@ -27709,7 +27715,7 @@
       <c r="K57" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L57" s="133"/>
+      <c r="L57" s="125"/>
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
     </row>
@@ -27745,7 +27751,7 @@
       <c r="K58" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="L58" s="133"/>
+      <c r="L58" s="125"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
     </row>
@@ -27781,7 +27787,7 @@
       <c r="K59" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L59" s="133"/>
+      <c r="L59" s="125"/>
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
     </row>
@@ -27817,7 +27823,7 @@
       <c r="K60" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="L60" s="133"/>
+      <c r="L60" s="125"/>
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
     </row>
@@ -27853,7 +27859,7 @@
       <c r="K61" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L61" s="133"/>
+      <c r="L61" s="125"/>
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
     </row>
@@ -27887,7 +27893,7 @@
       <c r="K62" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="L62" s="133"/>
+      <c r="L62" s="125"/>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
     </row>
@@ -27923,7 +27929,7 @@
       <c r="K63" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="L63" s="133"/>
+      <c r="L63" s="125"/>
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
     </row>
@@ -27957,7 +27963,7 @@
       <c r="K64" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="L64" s="133"/>
+      <c r="L64" s="125"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
     </row>
@@ -27991,7 +27997,7 @@
       <c r="K65" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="L65" s="133"/>
+      <c r="L65" s="125"/>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
     </row>
@@ -28027,7 +28033,7 @@
       <c r="K66" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="L66" s="132"/>
+      <c r="L66" s="124"/>
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
     </row>
@@ -28061,7 +28067,7 @@
       <c r="K67" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="L67" s="132"/>
+      <c r="L67" s="124"/>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
     </row>
@@ -28095,7 +28101,7 @@
       <c r="K68" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="L68" s="133"/>
+      <c r="L68" s="125"/>
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
     </row>
@@ -28133,7 +28139,7 @@
       <c r="K69" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="L69" s="135" t="s">
+      <c r="L69" s="127" t="s">
         <v>343</v>
       </c>
       <c r="M69" s="19"/>
@@ -28173,7 +28179,7 @@
       <c r="K70" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="L70" s="133"/>
+      <c r="L70" s="125"/>
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
     </row>
@@ -28209,7 +28215,7 @@
       <c r="K71" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="L71" s="132"/>
+      <c r="L71" s="124"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
     </row>
@@ -28245,7 +28251,7 @@
       <c r="K72" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="L72" s="133"/>
+      <c r="L72" s="125"/>
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
     </row>
@@ -28281,7 +28287,7 @@
       <c r="K73" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="L73" s="133"/>
+      <c r="L73" s="125"/>
       <c r="M73" s="19"/>
       <c r="N73" s="19"/>
     </row>
@@ -28317,7 +28323,7 @@
       <c r="K74" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="L74" s="133"/>
+      <c r="L74" s="125"/>
       <c r="M74" s="19"/>
       <c r="N74" s="19"/>
     </row>
@@ -28351,7 +28357,7 @@
       <c r="K75" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="L75" s="133"/>
+      <c r="L75" s="125"/>
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
     </row>
@@ -28387,7 +28393,7 @@
       <c r="K76" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="L76" s="133"/>
+      <c r="L76" s="125"/>
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
     </row>
@@ -28423,7 +28429,7 @@
       <c r="K77" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="L77" s="133"/>
+      <c r="L77" s="125"/>
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
     </row>
@@ -28459,7 +28465,7 @@
       <c r="K78" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="L78" s="133"/>
+      <c r="L78" s="125"/>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
     </row>
@@ -28495,7 +28501,7 @@
       <c r="K79" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="L79" s="133"/>
+      <c r="L79" s="125"/>
       <c r="M79" s="19"/>
       <c r="N79" s="19"/>
     </row>
@@ -28529,7 +28535,7 @@
       <c r="K80" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L80" s="135" t="s">
+      <c r="L80" s="127" t="s">
         <v>387</v>
       </c>
       <c r="M80" s="19"/>
@@ -28565,7 +28571,7 @@
       <c r="K81" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="L81" s="133"/>
+      <c r="L81" s="125"/>
       <c r="M81" s="19"/>
       <c r="N81" s="19"/>
     </row>
@@ -28599,7 +28605,7 @@
       <c r="K82" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="L82" s="135" t="s">
+      <c r="L82" s="127" t="s">
         <v>400</v>
       </c>
       <c r="M82" s="19"/>
@@ -28635,7 +28641,7 @@
       <c r="K83" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="L83" s="133"/>
+      <c r="L83" s="125"/>
       <c r="M83" s="19"/>
       <c r="N83" s="19"/>
     </row>
@@ -28671,7 +28677,7 @@
       <c r="K84" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="L84" s="135" t="s">
+      <c r="L84" s="127" t="s">
         <v>410</v>
       </c>
       <c r="M84" s="19"/>
@@ -28707,7 +28713,7 @@
       <c r="K85" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="L85" s="132"/>
+      <c r="L85" s="124"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
     </row>
@@ -28741,7 +28747,7 @@
       <c r="K86" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="L86" s="132"/>
+      <c r="L86" s="124"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
     </row>
@@ -28777,7 +28783,7 @@
       <c r="K87" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="L87" s="132"/>
+      <c r="L87" s="124"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
     </row>
@@ -28815,7 +28821,7 @@
       <c r="K88" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="L88" s="133"/>
+      <c r="L88" s="125"/>
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
     </row>
@@ -28853,7 +28859,7 @@
       <c r="K89" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="L89" s="132"/>
+      <c r="L89" s="124"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
     </row>
@@ -28887,7 +28893,7 @@
       <c r="K90" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="L90" s="132"/>
+      <c r="L90" s="124"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
     </row>
@@ -28921,7 +28927,7 @@
       <c r="K91" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="L91" s="133"/>
+      <c r="L91" s="125"/>
       <c r="M91" s="19"/>
       <c r="N91" s="19"/>
     </row>
@@ -28957,7 +28963,7 @@
       <c r="K92" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="L92" s="135" t="s">
+      <c r="L92" s="127" t="s">
         <v>450</v>
       </c>
       <c r="M92" s="19"/>
@@ -28997,7 +29003,7 @@
       <c r="K93" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="L93" s="134" t="s">
+      <c r="L93" s="126" t="s">
         <v>410</v>
       </c>
       <c r="M93" s="19"/>
@@ -29037,7 +29043,7 @@
       <c r="K94" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="L94" s="133"/>
+      <c r="L94" s="125"/>
       <c r="M94" s="19"/>
       <c r="N94" s="19"/>
     </row>
@@ -29071,7 +29077,7 @@
       <c r="K95" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="L95" s="132"/>
+      <c r="L95" s="124"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
     </row>
@@ -29109,7 +29115,7 @@
       <c r="K96" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="L96" s="135" t="s">
+      <c r="L96" s="127" t="s">
         <v>128</v>
       </c>
       <c r="M96" s="19"/>
@@ -29147,7 +29153,7 @@
       <c r="K97" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L97" s="133"/>
+      <c r="L97" s="125"/>
       <c r="M97" s="19"/>
       <c r="N97" s="19"/>
     </row>
@@ -29185,7 +29191,7 @@
       <c r="K98" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L98" s="133"/>
+      <c r="L98" s="125"/>
       <c r="M98" s="19"/>
       <c r="N98" s="19"/>
     </row>
@@ -29219,7 +29225,7 @@
       <c r="K99" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L99" s="133"/>
+      <c r="L99" s="125"/>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
     </row>
@@ -29255,7 +29261,7 @@
       <c r="K100" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="L100" s="135" t="s">
+      <c r="L100" s="127" t="s">
         <v>128</v>
       </c>
       <c r="M100" s="19"/>
@@ -29291,7 +29297,7 @@
       <c r="K101" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L101" s="133"/>
+      <c r="L101" s="125"/>
       <c r="M101" s="19"/>
       <c r="N101" s="19"/>
     </row>
@@ -29327,7 +29333,7 @@
       <c r="K102" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L102" s="133"/>
+      <c r="L102" s="125"/>
       <c r="M102" s="19"/>
       <c r="N102" s="19"/>
     </row>
@@ -29363,7 +29369,7 @@
       <c r="K103" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L103" s="133"/>
+      <c r="L103" s="125"/>
       <c r="M103" s="19"/>
       <c r="N103" s="19"/>
     </row>
@@ -29399,7 +29405,7 @@
       <c r="K104" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="L104" s="133"/>
+      <c r="L104" s="125"/>
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
     </row>
@@ -29435,7 +29441,7 @@
       <c r="K105" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L105" s="133"/>
+      <c r="L105" s="125"/>
       <c r="M105" s="19"/>
       <c r="N105" s="19"/>
     </row>
@@ -29471,28 +29477,28 @@
       <c r="K106" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="L106" s="133"/>
+      <c r="L106" s="125"/>
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="128" t="s">
+      <c r="A107" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="B107" s="128"/>
-      <c r="C107" s="128"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
-      <c r="F107" s="128"/>
-      <c r="G107" s="128"/>
-      <c r="H107" s="128"/>
-      <c r="I107" s="128"/>
-      <c r="J107" s="128"/>
-      <c r="K107" s="128"/>
-      <c r="L107" s="128"/>
-      <c r="M107" s="128"/>
-      <c r="N107" s="128"/>
-      <c r="O107" s="128"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="121"/>
+      <c r="L107" s="121"/>
+      <c r="M107" s="121"/>
+      <c r="N107" s="121"/>
+      <c r="O107" s="121"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="39">
@@ -29526,28 +29532,28 @@
       <c r="K108" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="L108" s="133"/>
+      <c r="L108" s="125"/>
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" s="128" t="s">
+      <c r="A109" s="121" t="s">
         <v>516</v>
       </c>
-      <c r="B109" s="128"/>
-      <c r="C109" s="128"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="128"/>
-      <c r="G109" s="128"/>
-      <c r="H109" s="128"/>
-      <c r="I109" s="128"/>
-      <c r="J109" s="128"/>
-      <c r="K109" s="128"/>
-      <c r="L109" s="128"/>
-      <c r="M109" s="128"/>
-      <c r="N109" s="128"/>
-      <c r="O109" s="128"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="121"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="121"/>
+      <c r="H109" s="121"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="121"/>
+      <c r="K109" s="121"/>
+      <c r="L109" s="121"/>
+      <c r="M109" s="121"/>
+      <c r="N109" s="121"/>
+      <c r="O109" s="121"/>
     </row>
     <row r="110" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A110" s="28">
@@ -29581,7 +29587,7 @@
       <c r="K110" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="L110" s="132"/>
+      <c r="L110" s="124"/>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
     </row>
@@ -29617,7 +29623,7 @@
       <c r="K111" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="L111" s="133"/>
+      <c r="L111" s="125"/>
       <c r="M111" s="19"/>
       <c r="N111" s="19"/>
     </row>
@@ -29653,7 +29659,7 @@
       <c r="K112" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="L112" s="133"/>
+      <c r="L112" s="125"/>
       <c r="M112" s="19"/>
       <c r="N112" s="19"/>
     </row>
@@ -29689,7 +29695,7 @@
       <c r="K113" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="L113" s="133"/>
+      <c r="L113" s="125"/>
       <c r="M113" s="19"/>
       <c r="N113" s="19"/>
     </row>
@@ -29725,7 +29731,7 @@
       <c r="K114" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="L114" s="133"/>
+      <c r="L114" s="125"/>
       <c r="M114" s="19"/>
       <c r="N114" s="19"/>
     </row>
@@ -29761,7 +29767,7 @@
       <c r="K115" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="L115" s="133"/>
+      <c r="L115" s="125"/>
       <c r="M115" s="19"/>
       <c r="N115" s="19"/>
     </row>
@@ -29795,7 +29801,7 @@
       <c r="K116" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L116" s="133"/>
+      <c r="L116" s="125"/>
       <c r="M116" s="19"/>
       <c r="N116" s="19"/>
     </row>
@@ -29831,7 +29837,7 @@
       <c r="K117" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="L117" s="132"/>
+      <c r="L117" s="124"/>
       <c r="M117" s="15"/>
       <c r="N117" s="15"/>
     </row>
@@ -29865,7 +29871,7 @@
       <c r="K118" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="L118" s="133"/>
+      <c r="L118" s="125"/>
       <c r="M118" s="19"/>
       <c r="N118" s="19"/>
     </row>
@@ -29901,7 +29907,7 @@
       <c r="K119" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="L119" s="133"/>
+      <c r="L119" s="125"/>
       <c r="M119" s="19"/>
       <c r="N119" s="19"/>
     </row>
@@ -29937,7 +29943,7 @@
       <c r="K120" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="L120" s="133"/>
+      <c r="L120" s="125"/>
       <c r="M120" s="19"/>
       <c r="N120" s="19"/>
     </row>
@@ -29971,7 +29977,7 @@
       <c r="K121" s="25" t="s">
         <v>569</v>
       </c>
-      <c r="L121" s="133"/>
+      <c r="L121" s="125"/>
       <c r="M121" s="19"/>
       <c r="N121" s="19"/>
     </row>
@@ -30005,7 +30011,7 @@
       <c r="K122" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L122" s="133"/>
+      <c r="L122" s="125"/>
       <c r="M122" s="19"/>
       <c r="N122" s="19"/>
     </row>
@@ -30041,7 +30047,7 @@
       <c r="K123" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="L123" s="133"/>
+      <c r="L123" s="125"/>
       <c r="M123" s="19"/>
       <c r="N123" s="19"/>
     </row>
@@ -30077,7 +30083,7 @@
       <c r="K124" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="L124" s="133"/>
+      <c r="L124" s="125"/>
       <c r="M124" s="19"/>
       <c r="N124" s="19"/>
     </row>
@@ -30113,7 +30119,7 @@
       <c r="K125" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="L125" s="133"/>
+      <c r="L125" s="125"/>
       <c r="M125" s="19"/>
       <c r="N125" s="19"/>
     </row>
@@ -30149,7 +30155,7 @@
       <c r="K126" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="L126" s="133"/>
+      <c r="L126" s="125"/>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
     </row>
@@ -30185,7 +30191,7 @@
       <c r="K127" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="L127" s="138" t="s">
+      <c r="L127" s="130" t="s">
         <v>595</v>
       </c>
       <c r="M127" s="19"/>
@@ -30223,7 +30229,7 @@
       <c r="K128" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="L128" s="133"/>
+      <c r="L128" s="125"/>
       <c r="M128" s="19"/>
       <c r="N128" s="19"/>
     </row>
@@ -30259,7 +30265,7 @@
       <c r="K129" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L129" s="133"/>
+      <c r="L129" s="125"/>
       <c r="M129" s="19"/>
       <c r="N129" s="19"/>
     </row>
@@ -30295,7 +30301,7 @@
       <c r="K130" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="L130" s="132"/>
+      <c r="L130" s="124"/>
       <c r="M130" s="15"/>
       <c r="N130" s="15"/>
     </row>
@@ -30329,7 +30335,7 @@
       <c r="K131" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L131" s="139"/>
+      <c r="L131" s="131"/>
       <c r="M131" s="46"/>
       <c r="N131" s="46"/>
     </row>
@@ -30365,7 +30371,7 @@
       <c r="K132" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="L132" s="132"/>
+      <c r="L132" s="124"/>
       <c r="M132" s="15"/>
       <c r="N132" s="15"/>
     </row>
@@ -30399,7 +30405,7 @@
       <c r="K133" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="L133" s="132"/>
+      <c r="L133" s="124"/>
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
     </row>
@@ -30433,7 +30439,7 @@
       <c r="K134" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="L134" s="133"/>
+      <c r="L134" s="125"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
     </row>
@@ -30469,7 +30475,7 @@
       <c r="K135" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="L135" s="133"/>
+      <c r="L135" s="125"/>
       <c r="M135" s="19"/>
       <c r="N135" s="19"/>
     </row>
@@ -30507,7 +30513,7 @@
       <c r="K136" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="L136" s="133"/>
+      <c r="L136" s="125"/>
       <c r="M136" s="19"/>
       <c r="N136" s="19"/>
     </row>
@@ -30541,7 +30547,7 @@
       <c r="K137" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="L137" s="134" t="s">
+      <c r="L137" s="126" t="s">
         <v>633</v>
       </c>
       <c r="M137" s="15"/>
@@ -30577,7 +30583,7 @@
       <c r="K138" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="L138" s="133"/>
+      <c r="L138" s="125"/>
       <c r="M138" s="19"/>
       <c r="N138" s="19"/>
     </row>
@@ -30613,7 +30619,7 @@
       <c r="K139" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="L139" s="133"/>
+      <c r="L139" s="125"/>
       <c r="M139" s="19"/>
       <c r="N139" s="19"/>
     </row>
@@ -30647,7 +30653,7 @@
       <c r="K140" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="L140" s="134" t="s">
+      <c r="L140" s="126" t="s">
         <v>646</v>
       </c>
       <c r="M140" s="15"/>
@@ -30687,7 +30693,7 @@
       <c r="K141" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="L141" s="133"/>
+      <c r="L141" s="125"/>
       <c r="M141" s="19"/>
       <c r="N141" s="19"/>
     </row>
@@ -30723,7 +30729,7 @@
       <c r="K142" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="L142" s="133"/>
+      <c r="L142" s="125"/>
       <c r="M142" s="19"/>
       <c r="N142" s="19"/>
     </row>
@@ -30757,7 +30763,7 @@
       <c r="K143" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="L143" s="133"/>
+      <c r="L143" s="125"/>
       <c r="M143" s="19"/>
       <c r="N143" s="19"/>
     </row>
@@ -30795,7 +30801,7 @@
       <c r="K144" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="L144" s="133"/>
+      <c r="L144" s="125"/>
       <c r="M144" s="19"/>
       <c r="N144" s="19"/>
     </row>
@@ -30829,7 +30835,7 @@
       <c r="K145" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="L145" s="133"/>
+      <c r="L145" s="125"/>
       <c r="M145" s="19"/>
       <c r="N145" s="19"/>
     </row>
@@ -30863,7 +30869,7 @@
       <c r="K146" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="L146" s="133"/>
+      <c r="L146" s="125"/>
       <c r="M146" s="19"/>
       <c r="N146" s="19"/>
     </row>
@@ -30901,7 +30907,7 @@
       <c r="K147" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="L147" s="134" t="s">
+      <c r="L147" s="126" t="s">
         <v>677</v>
       </c>
       <c r="M147" s="19"/>
@@ -30939,7 +30945,7 @@
       <c r="K148" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="L148" s="133"/>
+      <c r="L148" s="125"/>
       <c r="M148" s="19"/>
       <c r="N148" s="19"/>
     </row>
@@ -30973,7 +30979,7 @@
       <c r="K149" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L149" s="133"/>
+      <c r="L149" s="125"/>
       <c r="M149" s="19"/>
       <c r="N149" s="19"/>
     </row>
@@ -31009,7 +31015,7 @@
       <c r="K150" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="L150" s="134" t="s">
+      <c r="L150" s="126" t="s">
         <v>128</v>
       </c>
       <c r="M150" s="19"/>
@@ -31047,7 +31053,7 @@
       <c r="K151" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="L151" s="133"/>
+      <c r="L151" s="125"/>
       <c r="M151" s="19"/>
       <c r="N151" s="19"/>
     </row>
@@ -31083,7 +31089,7 @@
       <c r="K152" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="L152" s="133"/>
+      <c r="L152" s="125"/>
       <c r="M152" s="19"/>
       <c r="N152" s="19"/>
     </row>
@@ -31117,7 +31123,7 @@
       <c r="K153" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="L153" s="133"/>
+      <c r="L153" s="125"/>
       <c r="M153" s="19"/>
       <c r="N153" s="19"/>
     </row>
@@ -31155,7 +31161,7 @@
       <c r="K154" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="L154" s="133"/>
+      <c r="L154" s="125"/>
       <c r="M154" s="19"/>
       <c r="N154" s="19"/>
     </row>
@@ -31187,7 +31193,7 @@
       <c r="K155" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="L155" s="133"/>
+      <c r="L155" s="125"/>
       <c r="M155" s="19"/>
       <c r="N155" s="19"/>
     </row>
@@ -31221,7 +31227,7 @@
       <c r="K156" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L156" s="133"/>
+      <c r="L156" s="125"/>
       <c r="M156" s="19"/>
       <c r="N156" s="19"/>
     </row>
@@ -31257,7 +31263,7 @@
       <c r="K157" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="L157" s="136"/>
+      <c r="L157" s="128"/>
       <c r="M157" s="32"/>
       <c r="N157" s="32"/>
     </row>
@@ -31293,7 +31299,7 @@
       <c r="K158" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="L158" s="133"/>
+      <c r="L158" s="125"/>
       <c r="M158" s="19"/>
       <c r="N158" s="19"/>
     </row>
@@ -31327,7 +31333,7 @@
       <c r="K159" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L159" s="135" t="s">
+      <c r="L159" s="127" t="s">
         <v>410</v>
       </c>
       <c r="M159" s="19"/>
@@ -31363,7 +31369,7 @@
       <c r="K160" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="L160" s="133"/>
+      <c r="L160" s="125"/>
       <c r="M160" s="19"/>
       <c r="N160" s="19"/>
     </row>
@@ -31397,7 +31403,7 @@
       <c r="K161" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L161" s="133"/>
+      <c r="L161" s="125"/>
       <c r="M161" s="19"/>
       <c r="N161" s="19"/>
     </row>
@@ -31431,7 +31437,7 @@
       <c r="K162" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L162" s="133"/>
+      <c r="L162" s="125"/>
       <c r="M162" s="19"/>
       <c r="N162" s="19"/>
     </row>
@@ -31467,7 +31473,7 @@
       <c r="K163" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L163" s="133"/>
+      <c r="L163" s="125"/>
       <c r="M163" s="19"/>
       <c r="N163" s="19"/>
     </row>
@@ -31505,7 +31511,7 @@
       <c r="K164" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="L164" s="133"/>
+      <c r="L164" s="125"/>
       <c r="M164" s="19"/>
       <c r="N164" s="19"/>
     </row>
@@ -31543,7 +31549,7 @@
       <c r="K165" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L165" s="133"/>
+      <c r="L165" s="125"/>
       <c r="M165" s="19"/>
       <c r="N165" s="19"/>
     </row>
@@ -31577,7 +31583,7 @@
       <c r="K166" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="L166" s="133"/>
+      <c r="L166" s="125"/>
       <c r="M166" s="19"/>
       <c r="N166" s="19"/>
     </row>
@@ -31611,7 +31617,7 @@
       <c r="K167" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="L167" s="135" t="s">
+      <c r="L167" s="127" t="s">
         <v>128</v>
       </c>
       <c r="M167" s="19"/>
@@ -31651,7 +31657,7 @@
       <c r="K168" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L168" s="133"/>
+      <c r="L168" s="125"/>
       <c r="M168" s="19"/>
       <c r="N168" s="19"/>
     </row>
@@ -31687,7 +31693,7 @@
       <c r="K169" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L169" s="133"/>
+      <c r="L169" s="125"/>
       <c r="M169" s="19"/>
       <c r="N169" s="19"/>
     </row>
@@ -31723,7 +31729,7 @@
       <c r="K170" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="L170" s="135" t="s">
+      <c r="L170" s="127" t="s">
         <v>400</v>
       </c>
       <c r="M170" s="19"/>
@@ -31759,7 +31765,7 @@
       <c r="K171" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L171" s="135" t="s">
+      <c r="L171" s="127" t="s">
         <v>762</v>
       </c>
       <c r="M171" s="19"/>
@@ -31797,7 +31803,7 @@
       <c r="K172" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L172" s="133"/>
+      <c r="L172" s="125"/>
       <c r="M172" s="19"/>
       <c r="N172" s="19"/>
     </row>
@@ -31833,7 +31839,7 @@
       <c r="K173" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L173" s="133"/>
+      <c r="L173" s="125"/>
       <c r="M173" s="19"/>
       <c r="N173" s="19"/>
     </row>
@@ -31869,7 +31875,7 @@
       <c r="K174" s="25" t="s">
         <v>772</v>
       </c>
-      <c r="L174" s="133"/>
+      <c r="L174" s="125"/>
       <c r="M174" s="19"/>
       <c r="N174" s="19"/>
     </row>
@@ -31903,7 +31909,7 @@
       <c r="K175" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="L175" s="132"/>
+      <c r="L175" s="124"/>
       <c r="M175" s="15"/>
       <c r="N175" s="15"/>
     </row>
@@ -31937,7 +31943,7 @@
       <c r="K176" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="L176" s="132"/>
+      <c r="L176" s="124"/>
       <c r="M176" s="15"/>
       <c r="N176" s="15"/>
     </row>
@@ -31973,7 +31979,7 @@
       <c r="K177" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L177" s="132"/>
+      <c r="L177" s="124"/>
       <c r="M177" s="15"/>
       <c r="N177" s="15"/>
     </row>
@@ -32011,7 +32017,7 @@
       <c r="K178" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="L178" s="132"/>
+      <c r="L178" s="124"/>
       <c r="M178" s="15"/>
       <c r="N178" s="15"/>
     </row>
@@ -32047,7 +32053,7 @@
       <c r="K179" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L179" s="132"/>
+      <c r="L179" s="124"/>
       <c r="M179" s="15"/>
       <c r="N179" s="15"/>
     </row>
@@ -32081,7 +32087,7 @@
       <c r="K180" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="L180" s="132"/>
+      <c r="L180" s="124"/>
       <c r="M180" s="15"/>
       <c r="N180" s="15"/>
     </row>
@@ -32115,7 +32121,7 @@
       <c r="K181" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="L181" s="133"/>
+      <c r="L181" s="125"/>
       <c r="M181" s="19"/>
       <c r="N181" s="19"/>
     </row>
@@ -32149,7 +32155,7 @@
       <c r="K182" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="L182" s="135" t="s">
+      <c r="L182" s="127" t="s">
         <v>87</v>
       </c>
       <c r="M182" s="19"/>
@@ -32189,7 +32195,7 @@
       <c r="K183" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="L183" s="133"/>
+      <c r="L183" s="125"/>
       <c r="M183" s="19"/>
       <c r="N183" s="19"/>
     </row>
@@ -32223,7 +32229,7 @@
       <c r="K184" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="L184" s="133"/>
+      <c r="L184" s="125"/>
       <c r="M184" s="19"/>
       <c r="N184" s="19"/>
     </row>
@@ -32259,7 +32265,7 @@
       <c r="K185" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L185" s="133"/>
+      <c r="L185" s="125"/>
       <c r="M185" s="19"/>
       <c r="N185" s="19"/>
     </row>
@@ -32295,7 +32301,7 @@
       <c r="K186" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L186" s="133"/>
+      <c r="L186" s="125"/>
       <c r="M186" s="19"/>
       <c r="N186" s="19"/>
     </row>
@@ -32331,7 +32337,7 @@
       <c r="K187" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="L187" s="134" t="s">
+      <c r="L187" s="126" t="s">
         <v>821</v>
       </c>
       <c r="M187" s="19"/>
@@ -32367,7 +32373,7 @@
       <c r="K188" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="L188" s="133"/>
+      <c r="L188" s="125"/>
       <c r="M188" s="19"/>
       <c r="N188" s="19"/>
     </row>
@@ -32403,7 +32409,7 @@
       <c r="K189" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="L189" s="133"/>
+      <c r="L189" s="125"/>
       <c r="M189" s="19"/>
       <c r="N189" s="19"/>
     </row>
@@ -32437,7 +32443,7 @@
       <c r="K190" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="L190" s="133"/>
+      <c r="L190" s="125"/>
       <c r="M190" s="19"/>
       <c r="N190" s="19"/>
     </row>
@@ -32473,7 +32479,7 @@
       <c r="K191" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="L191" s="133"/>
+      <c r="L191" s="125"/>
       <c r="M191" s="19"/>
       <c r="N191" s="19"/>
     </row>
@@ -32507,7 +32513,7 @@
       <c r="K192" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="L192" s="133"/>
+      <c r="L192" s="125"/>
       <c r="M192" s="19"/>
       <c r="N192" s="19"/>
     </row>
@@ -32541,7 +32547,7 @@
       <c r="K193" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L193" s="132"/>
+      <c r="L193" s="124"/>
       <c r="M193" s="15"/>
       <c r="N193" s="15"/>
     </row>
@@ -32575,7 +32581,7 @@
       <c r="K194" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="L194" s="132"/>
+      <c r="L194" s="124"/>
       <c r="M194" s="15"/>
       <c r="N194" s="15"/>
     </row>
@@ -32611,7 +32617,7 @@
       <c r="K195" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="L195" s="135" t="s">
+      <c r="L195" s="127" t="s">
         <v>849</v>
       </c>
       <c r="M195" s="19"/>
@@ -32647,7 +32653,7 @@
       <c r="K196" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="L196" s="132"/>
+      <c r="L196" s="124"/>
       <c r="M196" s="15"/>
       <c r="N196" s="15"/>
     </row>
@@ -32685,7 +32691,7 @@
       <c r="K197" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="L197" s="132"/>
+      <c r="L197" s="124"/>
       <c r="M197" s="15"/>
       <c r="N197" s="15"/>
     </row>
@@ -32721,28 +32727,28 @@
       <c r="K198" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="L198" s="132"/>
+      <c r="L198" s="124"/>
       <c r="M198" s="15"/>
       <c r="N198" s="15"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A199" s="128" t="s">
+      <c r="A199" s="121" t="s">
         <v>864</v>
       </c>
-      <c r="B199" s="128"/>
-      <c r="C199" s="128"/>
-      <c r="D199" s="128"/>
-      <c r="E199" s="128"/>
-      <c r="F199" s="128"/>
-      <c r="G199" s="128"/>
-      <c r="H199" s="128"/>
-      <c r="I199" s="128"/>
-      <c r="J199" s="128"/>
-      <c r="K199" s="128"/>
-      <c r="L199" s="128"/>
-      <c r="M199" s="128"/>
-      <c r="N199" s="128"/>
-      <c r="O199" s="128"/>
+      <c r="B199" s="121"/>
+      <c r="C199" s="121"/>
+      <c r="D199" s="121"/>
+      <c r="E199" s="121"/>
+      <c r="F199" s="121"/>
+      <c r="G199" s="121"/>
+      <c r="H199" s="121"/>
+      <c r="I199" s="121"/>
+      <c r="J199" s="121"/>
+      <c r="K199" s="121"/>
+      <c r="L199" s="121"/>
+      <c r="M199" s="121"/>
+      <c r="N199" s="121"/>
+      <c r="O199" s="121"/>
     </row>
     <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="28">
@@ -32776,8 +32782,8 @@
       <c r="K200" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="L200" s="140" t="s">
-        <v>869</v>
+      <c r="L200" s="132" t="s">
+        <v>2278</v>
       </c>
       <c r="M200" s="58">
         <v>43701</v>
@@ -32818,7 +32824,7 @@
       <c r="K201" s="62" t="s">
         <v>606</v>
       </c>
-      <c r="L201" s="141" t="s">
+      <c r="L201" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M201" s="63">
@@ -32860,7 +32866,7 @@
       <c r="K202" s="57" t="s">
         <v>485</v>
       </c>
-      <c r="L202" s="140" t="s">
+      <c r="L202" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M202" s="58">
@@ -32902,7 +32908,7 @@
       <c r="K203" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="L203" s="140" t="s">
+      <c r="L203" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M203" s="58">
@@ -32940,7 +32946,7 @@
       <c r="K204" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="L204" s="140" t="s">
+      <c r="L204" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M204" s="58">
@@ -32980,7 +32986,7 @@
       <c r="K205" s="62" t="s">
         <v>891</v>
       </c>
-      <c r="L205" s="141" t="s">
+      <c r="L205" s="133" t="s">
         <v>892</v>
       </c>
       <c r="M205" s="63">
@@ -33022,7 +33028,7 @@
       <c r="K206" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="L206" s="140" t="s">
+      <c r="L206" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M206" s="58">
@@ -33064,7 +33070,7 @@
       <c r="K207" s="62" t="s">
         <v>901</v>
       </c>
-      <c r="L207" s="141" t="s">
+      <c r="L207" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M207" s="63">
@@ -33106,7 +33112,7 @@
       <c r="K208" s="57" t="s">
         <v>906</v>
       </c>
-      <c r="L208" s="140" t="s">
+      <c r="L208" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M208" s="58">
@@ -33148,7 +33154,7 @@
       <c r="K209" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="L209" s="142" t="s">
+      <c r="L209" s="135" t="s">
         <v>911</v>
       </c>
       <c r="M209" s="58">
@@ -33190,7 +33196,7 @@
       <c r="K210" s="62" t="s">
         <v>917</v>
       </c>
-      <c r="L210" s="141" t="s">
+      <c r="L210" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M210" s="63">
@@ -33232,7 +33238,7 @@
       <c r="K211" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="L211" s="140" t="s">
+      <c r="L211" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M211" s="58">
@@ -33272,7 +33278,7 @@
       <c r="K212" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="L212" s="142" t="s">
+      <c r="L212" s="135" t="s">
         <v>926</v>
       </c>
       <c r="M212" s="58">
@@ -33312,7 +33318,7 @@
       <c r="K213" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="L213" s="140" t="s">
+      <c r="L213" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M213" s="61" t="s">
@@ -33354,7 +33360,7 @@
       <c r="K214" s="62" t="s">
         <v>937</v>
       </c>
-      <c r="L214" s="141" t="s">
+      <c r="L214" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M214" s="63">
@@ -33394,7 +33400,7 @@
       <c r="K215" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="L215" s="140" t="s">
+      <c r="L215" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M215" s="58">
@@ -33436,7 +33442,7 @@
       <c r="K216" s="62" t="s">
         <v>948</v>
       </c>
-      <c r="L216" s="141" t="s">
+      <c r="L216" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M216" s="63">
@@ -33476,7 +33482,7 @@
       <c r="K217" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L217" s="141" t="s">
+      <c r="L217" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M217" s="61" t="s">
@@ -33516,7 +33522,7 @@
       <c r="K218" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="L218" s="142" t="s">
+      <c r="L218" s="135" t="s">
         <v>959</v>
       </c>
       <c r="M218" s="63">
@@ -33558,7 +33564,7 @@
       <c r="K219" s="62" t="s">
         <v>693</v>
       </c>
-      <c r="L219" s="141" t="s">
+      <c r="L219" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M219" s="63">
@@ -33600,7 +33606,7 @@
       <c r="K220" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="L220" s="141" t="s">
+      <c r="L220" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M220" s="63">
@@ -33640,7 +33646,7 @@
       <c r="K221" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="L221" s="141" t="s">
+      <c r="L221" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M221" s="63">
@@ -33684,7 +33690,7 @@
       <c r="K222" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="L222" s="142" t="s">
+      <c r="L222" s="135" t="s">
         <v>978</v>
       </c>
       <c r="M222" s="63">
@@ -33728,7 +33734,7 @@
       <c r="K223" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L223" s="140" t="s">
+      <c r="L223" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M223" s="58">
@@ -33768,7 +33774,7 @@
       <c r="K224" s="57" t="s">
         <v>989</v>
       </c>
-      <c r="L224" s="140" t="s">
+      <c r="L224" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M224" s="58">
@@ -33810,7 +33816,7 @@
       <c r="K225" s="57" t="s">
         <v>994</v>
       </c>
-      <c r="L225" s="140" t="s">
+      <c r="L225" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M225" s="58">
@@ -33850,7 +33856,7 @@
       <c r="K226" s="68" t="s">
         <v>1000</v>
       </c>
-      <c r="L226" s="143" t="s">
+      <c r="L226" s="136" t="s">
         <v>869</v>
       </c>
       <c r="M226" s="69">
@@ -33892,7 +33898,7 @@
       <c r="K227" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="L227" s="140" t="s">
+      <c r="L227" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M227" s="58">
@@ -33934,7 +33940,7 @@
       <c r="K228" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="L228" s="140" t="s">
+      <c r="L228" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M228" s="58">
@@ -33974,7 +33980,7 @@
       <c r="K229" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="L229" s="141" t="s">
+      <c r="L229" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M229" s="63">
@@ -34016,7 +34022,7 @@
       <c r="K230" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="L230" s="140" t="s">
+      <c r="L230" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M230" s="58">
@@ -34056,7 +34062,7 @@
       <c r="K231" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="L231" s="141" t="s">
+      <c r="L231" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M231" s="63">
@@ -34096,7 +34102,7 @@
       <c r="K232" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L232" s="140" t="s">
+      <c r="L232" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M232" s="58">
@@ -34140,7 +34146,7 @@
       <c r="K233" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="L233" s="140" t="s">
+      <c r="L233" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M233" s="58">
@@ -34180,7 +34186,7 @@
       <c r="K234" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="L234" s="140" t="s">
+      <c r="L234" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M234" s="58">
@@ -34220,7 +34226,7 @@
       <c r="K235" s="62" t="s">
         <v>746</v>
       </c>
-      <c r="L235" s="144" t="s">
+      <c r="L235" s="137" t="s">
         <v>1042</v>
       </c>
       <c r="M235" s="63">
@@ -34262,7 +34268,7 @@
       <c r="K236" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="L236" s="142" t="s">
+      <c r="L236" s="135" t="s">
         <v>911</v>
       </c>
       <c r="M236" s="58">
@@ -34304,7 +34310,7 @@
       <c r="K237" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="L237" s="140" t="s">
+      <c r="L237" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M237" s="61" t="s">
@@ -34344,7 +34350,7 @@
       <c r="K238" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L238" s="141" t="s">
+      <c r="L238" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M238" s="63">
@@ -34384,7 +34390,7 @@
       <c r="K239" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="L239" s="140" t="s">
+      <c r="L239" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M239" s="61" t="s">
@@ -34424,7 +34430,7 @@
       <c r="K240" s="57" t="s">
         <v>1066</v>
       </c>
-      <c r="L240" s="142" t="s">
+      <c r="L240" s="135" t="s">
         <v>1067</v>
       </c>
       <c r="M240" s="58">
@@ -34464,7 +34470,7 @@
       <c r="K241" s="57" t="s">
         <v>746</v>
       </c>
-      <c r="L241" s="142" t="s">
+      <c r="L241" s="135" t="s">
         <v>1072</v>
       </c>
       <c r="M241" s="58">
@@ -34504,7 +34510,7 @@
       <c r="K242" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="L242" s="140" t="s">
+      <c r="L242" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M242" s="61" t="s">
@@ -34548,7 +34554,7 @@
       <c r="K243" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="L243" s="142" t="s">
+      <c r="L243" s="135" t="s">
         <v>959</v>
       </c>
       <c r="M243" s="61" t="s">
@@ -34590,7 +34596,7 @@
       <c r="K244" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="L244" s="140" t="s">
+      <c r="L244" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M244" s="58">
@@ -34632,7 +34638,7 @@
       <c r="K245" s="57" t="s">
         <v>722</v>
       </c>
-      <c r="L245" s="140" t="s">
+      <c r="L245" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M245" s="58">
@@ -34674,7 +34680,7 @@
       <c r="K246" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="L246" s="141" t="s">
+      <c r="L246" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M246" s="63">
@@ -34718,7 +34724,7 @@
       <c r="K247" s="57" t="s">
         <v>1099</v>
       </c>
-      <c r="L247" s="140" t="s">
+      <c r="L247" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M247" s="58">
@@ -34760,7 +34766,7 @@
       <c r="K248" s="62" t="s">
         <v>813</v>
       </c>
-      <c r="L248" s="141" t="s">
+      <c r="L248" s="133" t="s">
         <v>869</v>
       </c>
       <c r="M248" s="63">
@@ -34800,7 +34806,7 @@
       <c r="K249" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="L249" s="140" t="s">
+      <c r="L249" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M249" s="58">
@@ -34842,7 +34848,7 @@
       <c r="K250" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="L250" s="140" t="s">
+      <c r="L250" s="134" t="s">
         <v>869</v>
       </c>
       <c r="M250" s="58">
@@ -34853,23 +34859,23 @@
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A251" s="128" t="s">
+      <c r="A251" s="121" t="s">
         <v>1114</v>
       </c>
-      <c r="B251" s="128"/>
-      <c r="C251" s="128"/>
-      <c r="D251" s="128"/>
-      <c r="E251" s="128"/>
-      <c r="F251" s="128"/>
-      <c r="G251" s="128"/>
-      <c r="H251" s="128"/>
-      <c r="I251" s="128"/>
-      <c r="J251" s="128"/>
-      <c r="K251" s="128"/>
-      <c r="L251" s="128"/>
-      <c r="M251" s="128"/>
-      <c r="N251" s="128"/>
-      <c r="O251" s="128"/>
+      <c r="B251" s="121"/>
+      <c r="C251" s="121"/>
+      <c r="D251" s="121"/>
+      <c r="E251" s="121"/>
+      <c r="F251" s="121"/>
+      <c r="G251" s="121"/>
+      <c r="H251" s="121"/>
+      <c r="I251" s="121"/>
+      <c r="J251" s="121"/>
+      <c r="K251" s="121"/>
+      <c r="L251" s="121"/>
+      <c r="M251" s="121"/>
+      <c r="N251" s="121"/>
+      <c r="O251" s="121"/>
     </row>
     <row r="252" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="28">
@@ -34903,7 +34909,7 @@
       <c r="K252" s="75" t="s">
         <v>606</v>
       </c>
-      <c r="L252" s="145" t="s">
+      <c r="L252" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M252" s="76">
@@ -34943,7 +34949,7 @@
       <c r="K253" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="L253" s="146" t="s">
+      <c r="L253" s="139" t="s">
         <v>1124</v>
       </c>
       <c r="M253" s="77" t="s">
@@ -34985,7 +34991,7 @@
       <c r="K254" s="75" t="s">
         <v>1130</v>
       </c>
-      <c r="L254" s="145" t="s">
+      <c r="L254" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M254" s="76">
@@ -35027,7 +35033,7 @@
       <c r="K255" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="L255" s="145" t="s">
+      <c r="L255" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M255" s="76">
@@ -35067,7 +35073,7 @@
       <c r="K256" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="L256" s="146" t="s">
+      <c r="L256" s="139" t="s">
         <v>1140</v>
       </c>
       <c r="M256" s="76">
@@ -35111,7 +35117,7 @@
       <c r="K257" s="75" t="s">
         <v>1146</v>
       </c>
-      <c r="L257" s="145" t="s">
+      <c r="L257" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M257" s="76">
@@ -35151,7 +35157,7 @@
       <c r="K258" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="L258" s="145" t="s">
+      <c r="L258" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M258" s="76">
@@ -35193,7 +35199,7 @@
       <c r="K259" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="L259" s="145" t="s">
+      <c r="L259" s="138" t="s">
         <v>1156</v>
       </c>
       <c r="M259" s="76">
@@ -35233,7 +35239,7 @@
       <c r="K260" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="L260" s="147" t="s">
+      <c r="L260" s="140" t="s">
         <v>1161</v>
       </c>
       <c r="M260" s="80">
@@ -35275,7 +35281,7 @@
       <c r="K261" s="82" t="s">
         <v>1166</v>
       </c>
-      <c r="L261" s="148" t="s">
+      <c r="L261" s="141" t="s">
         <v>1131</v>
       </c>
       <c r="M261" s="80">
@@ -35319,7 +35325,7 @@
       <c r="K262" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="L262" s="145" t="s">
+      <c r="L262" s="138" t="s">
         <v>869</v>
       </c>
       <c r="M262" s="77" t="s">
@@ -35359,7 +35365,7 @@
       <c r="K263" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="L263" s="146" t="s">
+      <c r="L263" s="139" t="s">
         <v>1176</v>
       </c>
       <c r="M263" s="76">
@@ -35401,7 +35407,7 @@
       <c r="K264" s="75" t="s">
         <v>1182</v>
       </c>
-      <c r="L264" s="145" t="s">
+      <c r="L264" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M264" s="77" t="s">
@@ -35443,7 +35449,7 @@
       <c r="K265" s="82" t="s">
         <v>523</v>
       </c>
-      <c r="L265" s="146" t="s">
+      <c r="L265" s="139" t="s">
         <v>1190</v>
       </c>
       <c r="M265" s="80">
@@ -35485,7 +35491,7 @@
       <c r="K266" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="L266" s="145" t="s">
+      <c r="L266" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M266" s="76">
@@ -35527,7 +35533,7 @@
       <c r="K267" s="75" t="s">
         <v>1199</v>
       </c>
-      <c r="L267" s="145" t="s">
+      <c r="L267" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M267" s="76">
@@ -35569,7 +35575,7 @@
       <c r="K268" s="82" t="s">
         <v>1204</v>
       </c>
-      <c r="L268" s="148" t="s">
+      <c r="L268" s="141" t="s">
         <v>1131</v>
       </c>
       <c r="M268" s="80">
@@ -35611,7 +35617,7 @@
       <c r="K269" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="L269" s="145" t="s">
+      <c r="L269" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M269" s="76">
@@ -35653,7 +35659,7 @@
       <c r="K270" s="82" t="s">
         <v>1214</v>
       </c>
-      <c r="L270" s="146" t="s">
+      <c r="L270" s="139" t="s">
         <v>1215</v>
       </c>
       <c r="M270" s="77" t="s">
@@ -35693,7 +35699,7 @@
       <c r="K271" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="L271" s="145" t="s">
+      <c r="L271" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M271" s="76">
@@ -35735,7 +35741,7 @@
       <c r="K272" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="L272" s="146" t="s">
+      <c r="L272" s="139" t="s">
         <v>1226</v>
       </c>
       <c r="M272" s="76">
@@ -35777,7 +35783,7 @@
       <c r="K273" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="L273" s="145" t="s">
+      <c r="L273" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M273" s="76">
@@ -35821,7 +35827,7 @@
       <c r="K274" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="L274" s="146" t="s">
+      <c r="L274" s="139" t="s">
         <v>1236</v>
       </c>
       <c r="M274" s="77" t="s">
@@ -35861,7 +35867,7 @@
       <c r="K275" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="L275" s="145" t="s">
+      <c r="L275" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M275" s="76">
@@ -35903,7 +35909,7 @@
       <c r="K276" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="L276" s="146" t="s">
+      <c r="L276" s="139" t="s">
         <v>1226</v>
       </c>
       <c r="M276" s="76">
@@ -35945,7 +35951,7 @@
       <c r="K277" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="L277" s="145" t="s">
+      <c r="L277" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M277" s="87">
@@ -35985,7 +35991,7 @@
       <c r="K278" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="L278" s="145" t="s">
+      <c r="L278" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M278" s="76">
@@ -36027,7 +36033,7 @@
       <c r="K279" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="L279" s="145" t="s">
+      <c r="L279" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M279" s="76">
@@ -36067,7 +36073,7 @@
       <c r="K280" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="L280" s="145" t="s">
+      <c r="L280" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M280" s="76">
@@ -36107,7 +36113,7 @@
       <c r="K281" s="75" t="s">
         <v>1271</v>
       </c>
-      <c r="L281" s="146" t="s">
+      <c r="L281" s="139" t="s">
         <v>1272</v>
       </c>
       <c r="M281" s="89">
@@ -36149,7 +36155,7 @@
       <c r="K282" s="75" t="s">
         <v>813</v>
       </c>
-      <c r="L282" s="145" t="s">
+      <c r="L282" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M282" s="76">
@@ -36189,7 +36195,7 @@
       <c r="K283" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="L283" s="148" t="s">
+      <c r="L283" s="141" t="s">
         <v>1131</v>
       </c>
       <c r="M283" s="80">
@@ -36231,7 +36237,7 @@
       <c r="K284" s="75" t="s">
         <v>1285</v>
       </c>
-      <c r="L284" s="145" t="s">
+      <c r="L284" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M284" s="76">
@@ -36275,7 +36281,7 @@
       <c r="K285" s="75" t="s">
         <v>1291</v>
       </c>
-      <c r="L285" s="145" t="s">
+      <c r="L285" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M285" s="76">
@@ -36317,7 +36323,7 @@
       <c r="K286" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="L286" s="145" t="s">
+      <c r="L286" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M286" s="76">
@@ -36357,7 +36363,7 @@
       <c r="K287" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="L287" s="146" t="s">
+      <c r="L287" s="139" t="s">
         <v>1300</v>
       </c>
       <c r="M287" s="76">
@@ -36397,7 +36403,7 @@
       <c r="K288" s="82" t="s">
         <v>393</v>
       </c>
-      <c r="L288" s="146" t="s">
+      <c r="L288" s="139" t="s">
         <v>1305</v>
       </c>
       <c r="M288" s="80">
@@ -36439,7 +36445,7 @@
       <c r="K289" s="75" t="s">
         <v>917</v>
       </c>
-      <c r="L289" s="145" t="s">
+      <c r="L289" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M289" s="76">
@@ -36479,7 +36485,7 @@
       <c r="K290" s="75" t="s">
         <v>1314</v>
       </c>
-      <c r="L290" s="146" t="s">
+      <c r="L290" s="139" t="s">
         <v>1315</v>
       </c>
       <c r="M290" s="76">
@@ -36521,7 +36527,7 @@
       <c r="K291" s="75" t="s">
         <v>682</v>
       </c>
-      <c r="L291" s="145" t="s">
+      <c r="L291" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M291" s="76">
@@ -36561,7 +36567,7 @@
       <c r="K292" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="L292" s="146" t="s">
+      <c r="L292" s="139" t="s">
         <v>1324</v>
       </c>
       <c r="M292" s="76">
@@ -36603,7 +36609,7 @@
       <c r="K293" s="82" t="s">
         <v>378</v>
       </c>
-      <c r="L293" s="148" t="s">
+      <c r="L293" s="141" t="s">
         <v>1131</v>
       </c>
       <c r="M293" s="80">
@@ -36645,7 +36651,7 @@
       <c r="K294" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="L294" s="145" t="s">
+      <c r="L294" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M294" s="77" t="s">
@@ -36687,7 +36693,7 @@
       <c r="K295" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="L295" s="145" t="s">
+      <c r="L295" s="138" t="s">
         <v>892</v>
       </c>
       <c r="M295" s="76">
@@ -36729,7 +36735,7 @@
       <c r="K296" s="75" t="s">
         <v>1343</v>
       </c>
-      <c r="L296" s="145" t="s">
+      <c r="L296" s="138" t="s">
         <v>1131</v>
       </c>
       <c r="M296" s="76">
@@ -36773,7 +36779,7 @@
       <c r="K297" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="L297" s="145" t="s">
+      <c r="L297" s="138" t="s">
         <v>869</v>
       </c>
       <c r="M297" s="76">
@@ -36813,7 +36819,7 @@
       <c r="K298" s="75" t="s">
         <v>637</v>
       </c>
-      <c r="L298" s="146" t="s">
+      <c r="L298" s="139" t="s">
         <v>1354</v>
       </c>
       <c r="M298" s="76">
@@ -36855,7 +36861,7 @@
       <c r="K299" s="82" t="s">
         <v>312</v>
       </c>
-      <c r="L299" s="148" t="s">
+      <c r="L299" s="141" t="s">
         <v>1359</v>
       </c>
       <c r="M299" s="80">
@@ -36899,7 +36905,7 @@
       <c r="K300" s="82" t="s">
         <v>1364</v>
       </c>
-      <c r="L300" s="148" t="s">
+      <c r="L300" s="141" t="s">
         <v>892</v>
       </c>
       <c r="M300" s="80">
@@ -36939,7 +36945,7 @@
       <c r="K301" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="L301" s="146" t="s">
+      <c r="L301" s="139" t="s">
         <v>1369</v>
       </c>
       <c r="M301" s="80">
@@ -36981,7 +36987,7 @@
       <c r="K302" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="L302" s="147" t="s">
+      <c r="L302" s="140" t="s">
         <v>1131</v>
       </c>
       <c r="M302" s="80">
@@ -36992,23 +36998,23 @@
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A303" s="128" t="s">
+      <c r="A303" s="121" t="s">
         <v>1375</v>
       </c>
-      <c r="B303" s="128"/>
-      <c r="C303" s="128"/>
-      <c r="D303" s="128"/>
-      <c r="E303" s="128"/>
-      <c r="F303" s="128"/>
-      <c r="G303" s="128"/>
-      <c r="H303" s="128"/>
-      <c r="I303" s="128"/>
-      <c r="J303" s="128"/>
-      <c r="K303" s="128"/>
-      <c r="L303" s="128"/>
-      <c r="M303" s="128"/>
-      <c r="N303" s="128"/>
-      <c r="O303" s="128"/>
+      <c r="B303" s="121"/>
+      <c r="C303" s="121"/>
+      <c r="D303" s="121"/>
+      <c r="E303" s="121"/>
+      <c r="F303" s="121"/>
+      <c r="G303" s="121"/>
+      <c r="H303" s="121"/>
+      <c r="I303" s="121"/>
+      <c r="J303" s="121"/>
+      <c r="K303" s="121"/>
+      <c r="L303" s="121"/>
+      <c r="M303" s="121"/>
+      <c r="N303" s="121"/>
+      <c r="O303" s="121"/>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="28">
@@ -37042,7 +37048,7 @@
       <c r="K304" s="94" t="s">
         <v>1381</v>
       </c>
-      <c r="L304" s="149" t="s">
+      <c r="L304" s="142" t="s">
         <v>1131</v>
       </c>
       <c r="M304" s="95">
@@ -37082,7 +37088,7 @@
       <c r="K305" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="L305" s="149" t="s">
+      <c r="L305" s="142" t="s">
         <v>1131</v>
       </c>
       <c r="M305" s="95">
@@ -37122,7 +37128,7 @@
       <c r="K306" s="98" t="s">
         <v>1391</v>
       </c>
-      <c r="L306" s="150" t="s">
+      <c r="L306" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M306" s="99">
@@ -37164,7 +37170,7 @@
       <c r="K307" s="94" t="s">
         <v>1401</v>
       </c>
-      <c r="L307" s="151" t="s">
+      <c r="L307" s="144" t="s">
         <v>1272</v>
       </c>
       <c r="M307" s="100">
@@ -37206,7 +37212,7 @@
       <c r="K308" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="L308" s="150" t="s">
+      <c r="L308" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M308" s="99">
@@ -37246,7 +37252,7 @@
       <c r="K309" s="98" t="s">
         <v>831</v>
       </c>
-      <c r="L309" s="150" t="s">
+      <c r="L309" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M309" s="99">
@@ -37288,7 +37294,7 @@
       <c r="K310" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="L310" s="150" t="s">
+      <c r="L310" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M310" s="99">
@@ -37330,7 +37336,7 @@
       <c r="K311" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="L311" s="150" t="s">
+      <c r="L311" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M311" s="99">
@@ -37372,7 +37378,7 @@
       <c r="K312" s="94" t="s">
         <v>472</v>
       </c>
-      <c r="L312" s="149" t="s">
+      <c r="L312" s="142" t="s">
         <v>1131</v>
       </c>
       <c r="M312" s="95">
@@ -37414,7 +37420,7 @@
       <c r="K313" s="94" t="s">
         <v>1429</v>
       </c>
-      <c r="L313" s="149" t="s">
+      <c r="L313" s="142" t="s">
         <v>1430</v>
       </c>
       <c r="M313" s="100">
@@ -37456,7 +37462,7 @@
       <c r="K314" s="94" t="s">
         <v>1437</v>
       </c>
-      <c r="L314" s="151" t="s">
+      <c r="L314" s="144" t="s">
         <v>1272</v>
       </c>
       <c r="M314" s="100">
@@ -37500,7 +37506,7 @@
       <c r="K315" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="L315" s="150" t="s">
+      <c r="L315" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M315" s="99">
@@ -37544,7 +37550,7 @@
       <c r="K316" s="94" t="s">
         <v>1209</v>
       </c>
-      <c r="L316" s="151" t="s">
+      <c r="L316" s="144" t="s">
         <v>1324</v>
       </c>
       <c r="M316" s="95">
@@ -37584,7 +37590,7 @@
       <c r="K317" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="L317" s="149" t="s">
+      <c r="L317" s="142" t="s">
         <v>892</v>
       </c>
       <c r="M317" s="95">
@@ -37626,7 +37632,7 @@
       <c r="K318" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="L318" s="149" t="s">
+      <c r="L318" s="142" t="s">
         <v>892</v>
       </c>
       <c r="M318" s="95">
@@ -37668,7 +37674,7 @@
       <c r="K319" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="L319" s="149" t="s">
+      <c r="L319" s="142" t="s">
         <v>892</v>
       </c>
       <c r="M319" s="95">
@@ -37712,7 +37718,7 @@
       <c r="K320" s="94" t="s">
         <v>637</v>
       </c>
-      <c r="L320" s="149" t="s">
+      <c r="L320" s="142" t="s">
         <v>1131</v>
       </c>
       <c r="M320" s="95">
@@ -37754,7 +37760,7 @@
       <c r="K321" s="94" t="s">
         <v>1467</v>
       </c>
-      <c r="L321" s="151" t="s">
+      <c r="L321" s="144" t="s">
         <v>1468</v>
       </c>
       <c r="M321" s="95">
@@ -37798,7 +37804,7 @@
       <c r="K322" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="L322" s="150" t="s">
+      <c r="L322" s="143" t="s">
         <v>1131</v>
       </c>
       <c r="M322" s="99">
@@ -37842,7 +37848,7 @@
       <c r="K323" s="98" t="s">
         <v>686</v>
       </c>
-      <c r="L323" s="150" t="s">
+      <c r="L323" s="143" t="s">
         <v>892</v>
       </c>
       <c r="M323" s="99">
@@ -37884,7 +37890,7 @@
       <c r="K324" s="94" t="s">
         <v>550</v>
       </c>
-      <c r="L324" s="149" t="s">
+      <c r="L324" s="142" t="s">
         <v>892</v>
       </c>
       <c r="M324" s="95">
@@ -37924,7 +37930,7 @@
       <c r="K325" s="98" t="s">
         <v>421</v>
       </c>
-      <c r="L325" s="152" t="s">
+      <c r="L325" s="145" t="s">
         <v>1485</v>
       </c>
       <c r="M325" s="99">
@@ -37935,23 +37941,23 @@
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A326" s="128" t="s">
+      <c r="A326" s="121" t="s">
         <v>1487</v>
       </c>
-      <c r="B326" s="128"/>
-      <c r="C326" s="128"/>
-      <c r="D326" s="128"/>
-      <c r="E326" s="128"/>
-      <c r="F326" s="128"/>
-      <c r="G326" s="128"/>
-      <c r="H326" s="128"/>
-      <c r="I326" s="128"/>
-      <c r="J326" s="128"/>
-      <c r="K326" s="128"/>
-      <c r="L326" s="128"/>
-      <c r="M326" s="128"/>
-      <c r="N326" s="128"/>
-      <c r="O326" s="128"/>
+      <c r="B326" s="121"/>
+      <c r="C326" s="121"/>
+      <c r="D326" s="121"/>
+      <c r="E326" s="121"/>
+      <c r="F326" s="121"/>
+      <c r="G326" s="121"/>
+      <c r="H326" s="121"/>
+      <c r="I326" s="121"/>
+      <c r="J326" s="121"/>
+      <c r="K326" s="121"/>
+      <c r="L326" s="121"/>
+      <c r="M326" s="121"/>
+      <c r="N326" s="121"/>
+      <c r="O326" s="121"/>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="9">
@@ -37983,7 +37989,7 @@
       <c r="K327" s="20" t="s">
         <v>1493</v>
       </c>
-      <c r="L327" s="105" t="s">
+      <c r="L327" s="146" t="s">
         <v>1494</v>
       </c>
       <c r="M327" s="26">
@@ -38023,7 +38029,7 @@
       <c r="K328" s="57" t="s">
         <v>1499</v>
       </c>
-      <c r="L328" s="106" t="s">
+      <c r="L328" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M328" s="58">
@@ -38061,11 +38067,11 @@
       <c r="I329" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J329" s="107"/>
+      <c r="J329" s="105"/>
       <c r="K329" s="25" t="s">
         <v>1509</v>
       </c>
-      <c r="L329" s="108" t="s">
+      <c r="L329" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M329" s="19"/>
@@ -38097,11 +38103,11 @@
       <c r="I330" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J330" s="107"/>
+      <c r="J330" s="105"/>
       <c r="K330" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L330" s="108" t="s">
+      <c r="L330" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M330" s="19"/>
@@ -38133,11 +38139,11 @@
       <c r="I331" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J331" s="107"/>
+      <c r="J331" s="105"/>
       <c r="K331" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="L331" s="108" t="s">
+      <c r="L331" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M331" s="19"/>
@@ -38169,11 +38175,11 @@
       <c r="I332" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J332" s="107"/>
+      <c r="J332" s="105"/>
       <c r="K332" s="25" t="s">
         <v>1522</v>
       </c>
-      <c r="L332" s="108" t="s">
+      <c r="L332" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M332" s="19"/>
@@ -38205,11 +38211,11 @@
       <c r="I333" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J333" s="107"/>
+      <c r="J333" s="105"/>
       <c r="K333" s="25" t="s">
         <v>1526</v>
       </c>
-      <c r="L333" s="108" t="s">
+      <c r="L333" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M333" s="19"/>
@@ -38247,7 +38253,7 @@
       <c r="K334" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L334" s="108" t="s">
+      <c r="L334" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M334" s="19"/>
@@ -38281,13 +38287,13 @@
       <c r="I335" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J335" s="109">
+      <c r="J335" s="106">
         <v>38223</v>
       </c>
       <c r="K335" s="25" t="s">
         <v>1535</v>
       </c>
-      <c r="L335" s="108" t="s">
+      <c r="L335" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M335" s="19"/>
@@ -38319,11 +38325,11 @@
       <c r="I336" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J336" s="107"/>
+      <c r="J336" s="105"/>
       <c r="K336" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L336" s="108" t="s">
+      <c r="L336" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M336" s="19"/>
@@ -38355,11 +38361,11 @@
       <c r="I337" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J337" s="107"/>
+      <c r="J337" s="105"/>
       <c r="K337" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L337" s="108" t="s">
+      <c r="L337" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M337" s="19"/>
@@ -38393,13 +38399,13 @@
       <c r="I338" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J338" s="109">
+      <c r="J338" s="106">
         <v>38223</v>
       </c>
       <c r="K338" s="25" t="s">
         <v>1546</v>
       </c>
-      <c r="L338" s="108" t="s">
+      <c r="L338" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M338" s="19"/>
@@ -38435,7 +38441,7 @@
       <c r="K339" s="25" t="s">
         <v>1526</v>
       </c>
-      <c r="L339" s="108" t="s">
+      <c r="L339" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M339" s="19"/>
@@ -38469,11 +38475,11 @@
       <c r="I340" s="23" t="s">
         <v>1428</v>
       </c>
-      <c r="J340" s="107"/>
+      <c r="J340" s="105"/>
       <c r="K340" s="25" t="s">
         <v>1554</v>
       </c>
-      <c r="L340" s="108" t="s">
+      <c r="L340" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M340" s="19"/>
@@ -38509,7 +38515,7 @@
       <c r="K341" s="57" t="s">
         <v>1558</v>
       </c>
-      <c r="L341" s="106" t="s">
+      <c r="L341" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M341" s="58">
@@ -38549,7 +38555,7 @@
       <c r="K342" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="L342" s="110" t="s">
+      <c r="L342" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M342" s="76">
@@ -38591,7 +38597,7 @@
       <c r="K343" s="75" t="s">
         <v>1568</v>
       </c>
-      <c r="L343" s="110" t="s">
+      <c r="L343" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M343" s="89">
@@ -38635,7 +38641,7 @@
       <c r="K344" s="75" t="s">
         <v>1575</v>
       </c>
-      <c r="L344" s="110" t="s">
+      <c r="L344" s="149" t="s">
         <v>1576</v>
       </c>
       <c r="M344" s="89">
@@ -38679,7 +38685,7 @@
       <c r="K345" s="75" t="s">
         <v>1546</v>
       </c>
-      <c r="L345" s="110" t="s">
+      <c r="L345" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M345" s="89">
@@ -38723,7 +38729,7 @@
       <c r="K346" s="75" t="s">
         <v>1271</v>
       </c>
-      <c r="L346" s="110" t="s">
+      <c r="L346" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M346" s="89">
@@ -38759,11 +38765,11 @@
       <c r="I347" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J347" s="107"/>
+      <c r="J347" s="105"/>
       <c r="K347" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="L347" s="108" t="s">
+      <c r="L347" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M347" s="19"/>
@@ -38799,7 +38805,7 @@
         <v>44371</v>
       </c>
       <c r="K348" s="93"/>
-      <c r="L348" s="108" t="s">
+      <c r="L348" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M348" s="19"/>
@@ -38839,7 +38845,7 @@
       <c r="K349" s="75" t="s">
         <v>1271</v>
       </c>
-      <c r="L349" s="110" t="s">
+      <c r="L349" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M349" s="89">
@@ -38881,7 +38887,7 @@
       <c r="K350" s="62" t="s">
         <v>813</v>
       </c>
-      <c r="L350" s="111" t="s">
+      <c r="L350" s="150" t="s">
         <v>1500</v>
       </c>
       <c r="M350" s="63">
@@ -38919,20 +38925,20 @@
       <c r="I351" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J351" s="109">
+      <c r="J351" s="106">
         <v>38223</v>
       </c>
       <c r="K351" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="L351" s="108" t="s">
+      <c r="L351" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M351" s="19"/>
       <c r="N351" s="19"/>
     </row>
     <row r="352" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A352" s="112">
+      <c r="A352" s="107">
         <v>339</v>
       </c>
       <c r="B352" s="18" t="s">
@@ -38963,7 +38969,7 @@
       <c r="K352" s="25" t="s">
         <v>1605</v>
       </c>
-      <c r="L352" s="108" t="s">
+      <c r="L352" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M352" s="19"/>
@@ -38985,7 +38991,7 @@
       <c r="E353" s="67" t="s">
         <v>1599</v>
       </c>
-      <c r="F353" s="113" t="s">
+      <c r="F353" s="108" t="s">
         <v>1608</v>
       </c>
       <c r="G353" s="65" t="s">
@@ -39001,10 +39007,10 @@
       <c r="K353" s="68" t="s">
         <v>1610</v>
       </c>
-      <c r="L353" s="114" t="s">
+      <c r="L353" s="151" t="s">
         <v>1611</v>
       </c>
-      <c r="M353" s="115">
+      <c r="M353" s="109">
         <v>38162</v>
       </c>
       <c r="N353" s="65" t="s">
@@ -39037,11 +39043,11 @@
       <c r="I354" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="J354" s="107"/>
+      <c r="J354" s="105"/>
       <c r="K354" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="L354" s="108" t="s">
+      <c r="L354" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M354" s="19"/>
@@ -39075,13 +39081,13 @@
       <c r="I355" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J355" s="109">
+      <c r="J355" s="106">
         <v>38223</v>
       </c>
       <c r="K355" s="25" t="s">
         <v>1621</v>
       </c>
-      <c r="L355" s="108" t="s">
+      <c r="L355" s="148" t="s">
         <v>1622</v>
       </c>
       <c r="M355" s="19"/>
@@ -39113,11 +39119,11 @@
       <c r="I356" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J356" s="107"/>
+      <c r="J356" s="105"/>
       <c r="K356" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="L356" s="108" t="s">
+      <c r="L356" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M356" s="19"/>
@@ -39153,7 +39159,7 @@
       <c r="K357" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="L357" s="114" t="s">
+      <c r="L357" s="151" t="s">
         <v>926</v>
       </c>
       <c r="M357" s="63">
@@ -39189,13 +39195,13 @@
       <c r="I358" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J358" s="109">
+      <c r="J358" s="106">
         <v>40414</v>
       </c>
       <c r="K358" s="25" t="s">
         <v>1635</v>
       </c>
-      <c r="L358" s="108" t="s">
+      <c r="L358" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M358" s="19"/>
@@ -39229,13 +39235,13 @@
       <c r="I359" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J359" s="109">
+      <c r="J359" s="106">
         <v>38223</v>
       </c>
       <c r="K359" s="25" t="s">
         <v>1635</v>
       </c>
-      <c r="L359" s="108" t="s">
+      <c r="L359" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M359" s="19"/>
@@ -39269,13 +39275,13 @@
       <c r="I360" s="23" t="s">
         <v>1400</v>
       </c>
-      <c r="J360" s="109">
+      <c r="J360" s="106">
         <v>44766</v>
       </c>
       <c r="K360" s="25" t="s">
         <v>1568</v>
       </c>
-      <c r="L360" s="108" t="s">
+      <c r="L360" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M360" s="19"/>
@@ -39313,7 +39319,7 @@
       <c r="K361" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L361" s="108" t="s">
+      <c r="L361" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M361" s="19"/>
@@ -39351,7 +39357,7 @@
       <c r="K362" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="L362" s="108" t="s">
+      <c r="L362" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M362" s="19"/>
@@ -39383,11 +39389,11 @@
       <c r="I363" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J363" s="107"/>
+      <c r="J363" s="105"/>
       <c r="K363" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="L363" s="108" t="s">
+      <c r="L363" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M363" s="19"/>
@@ -39425,7 +39431,7 @@
       <c r="K364" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="L364" s="105" t="s">
+      <c r="L364" s="146" t="s">
         <v>1518</v>
       </c>
       <c r="M364" s="15"/>
@@ -39457,11 +39463,11 @@
       <c r="I365" s="23" t="s">
         <v>1662</v>
       </c>
-      <c r="J365" s="107"/>
+      <c r="J365" s="105"/>
       <c r="K365" s="25" t="s">
         <v>1166</v>
       </c>
-      <c r="L365" s="108" t="s">
+      <c r="L365" s="148" t="s">
         <v>1663</v>
       </c>
       <c r="M365" s="19"/>
@@ -39493,11 +39499,11 @@
       <c r="I366" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J366" s="107"/>
+      <c r="J366" s="105"/>
       <c r="K366" s="25" t="s">
         <v>1667</v>
       </c>
-      <c r="L366" s="108" t="s">
+      <c r="L366" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M366" s="19"/>
@@ -39533,7 +39539,7 @@
       <c r="K367" s="57" t="s">
         <v>416</v>
       </c>
-      <c r="L367" s="106" t="s">
+      <c r="L367" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M367" s="58">
@@ -39569,11 +39575,11 @@
       <c r="I368" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J368" s="107"/>
+      <c r="J368" s="105"/>
       <c r="K368" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="L368" s="108" t="s">
+      <c r="L368" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M368" s="19"/>
@@ -39605,9 +39611,9 @@
       <c r="I369" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J369" s="107"/>
+      <c r="J369" s="105"/>
       <c r="K369" s="93"/>
-      <c r="L369" s="108" t="s">
+      <c r="L369" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M369" s="19"/>
@@ -39639,11 +39645,11 @@
       <c r="I370" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J370" s="107"/>
+      <c r="J370" s="105"/>
       <c r="K370" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L370" s="108" t="s">
+      <c r="L370" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M370" s="19"/>
@@ -39675,11 +39681,11 @@
       <c r="I371" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J371" s="107"/>
+      <c r="J371" s="105"/>
       <c r="K371" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L371" s="108" t="s">
+      <c r="L371" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M371" s="19"/>
@@ -39711,11 +39717,11 @@
       <c r="I372" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J372" s="107"/>
+      <c r="J372" s="105"/>
       <c r="K372" s="20" t="s">
         <v>1687</v>
       </c>
-      <c r="L372" s="105" t="s">
+      <c r="L372" s="146" t="s">
         <v>1518</v>
       </c>
       <c r="M372" s="19"/>
@@ -39747,11 +39753,11 @@
       <c r="I373" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J373" s="107"/>
+      <c r="J373" s="105"/>
       <c r="K373" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="L373" s="108" t="s">
+      <c r="L373" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M373" s="19"/>
@@ -39785,11 +39791,11 @@
       <c r="I374" s="23" t="s">
         <v>1699</v>
       </c>
-      <c r="J374" s="107"/>
+      <c r="J374" s="105"/>
       <c r="K374" s="25" t="s">
         <v>1700</v>
       </c>
-      <c r="L374" s="108" t="s">
+      <c r="L374" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M374" s="19"/>
@@ -39823,11 +39829,11 @@
       <c r="I375" s="23" t="s">
         <v>1699</v>
       </c>
-      <c r="J375" s="107"/>
+      <c r="J375" s="105"/>
       <c r="K375" s="25" t="s">
         <v>1707</v>
       </c>
-      <c r="L375" s="108" t="s">
+      <c r="L375" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M375" s="19"/>
@@ -39861,11 +39867,11 @@
       <c r="I376" s="23" t="s">
         <v>1699</v>
       </c>
-      <c r="J376" s="107"/>
+      <c r="J376" s="105"/>
       <c r="K376" s="25" t="s">
         <v>1712</v>
       </c>
-      <c r="L376" s="108" t="s">
+      <c r="L376" s="148" t="s">
         <v>1622</v>
       </c>
       <c r="M376" s="19"/>
@@ -39897,18 +39903,18 @@
       <c r="I377" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J377" s="107"/>
+      <c r="J377" s="105"/>
       <c r="K377" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L377" s="108" t="s">
+      <c r="L377" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M377" s="19"/>
       <c r="N377" s="19"/>
     </row>
     <row r="378" spans="1:14" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="112">
+      <c r="A378" s="107">
         <v>365</v>
       </c>
       <c r="B378" s="18" t="s">
@@ -39933,11 +39939,11 @@
       <c r="I378" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J378" s="107"/>
+      <c r="J378" s="105"/>
       <c r="K378" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="L378" s="108" t="s">
+      <c r="L378" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M378" s="19"/>
@@ -39969,11 +39975,11 @@
       <c r="I379" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J379" s="116"/>
+      <c r="J379" s="110"/>
       <c r="K379" s="33" t="s">
         <v>1722</v>
       </c>
-      <c r="L379" s="108" t="s">
+      <c r="L379" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M379" s="32"/>
@@ -40005,11 +40011,11 @@
       <c r="I380" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J380" s="107"/>
+      <c r="J380" s="105"/>
       <c r="K380" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L380" s="108" t="s">
+      <c r="L380" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M380" s="19"/>
@@ -40041,11 +40047,11 @@
       <c r="I381" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J381" s="107"/>
+      <c r="J381" s="105"/>
       <c r="K381" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L381" s="108" t="s">
+      <c r="L381" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M381" s="19"/>
@@ -40081,7 +40087,7 @@
       <c r="K382" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="L382" s="110" t="s">
+      <c r="L382" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M382" s="76">
@@ -40121,13 +40127,13 @@
       <c r="K383" s="75" t="s">
         <v>1182</v>
       </c>
-      <c r="L383" s="110" t="s">
+      <c r="L383" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M383" s="76">
         <v>47323</v>
       </c>
-      <c r="N383" s="117" t="s">
+      <c r="N383" s="111" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -40161,7 +40167,7 @@
       <c r="K384" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="L384" s="110" t="s">
+      <c r="L384" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M384" s="76">
@@ -40197,11 +40203,11 @@
       <c r="I385" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J385" s="107"/>
+      <c r="J385" s="105"/>
       <c r="K385" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L385" s="108" t="s">
+      <c r="L385" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M385" s="19"/>
@@ -40237,7 +40243,7 @@
       <c r="K386" s="62" t="s">
         <v>1209</v>
       </c>
-      <c r="L386" s="111" t="s">
+      <c r="L386" s="150" t="s">
         <v>1500</v>
       </c>
       <c r="M386" s="63">
@@ -40277,7 +40283,7 @@
       <c r="K387" s="82" t="s">
         <v>1214</v>
       </c>
-      <c r="L387" s="110" t="s">
+      <c r="L387" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M387" s="77" t="s">
@@ -40319,7 +40325,7 @@
       <c r="K388" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="L388" s="110" t="s">
+      <c r="L388" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M388" s="76">
@@ -40361,7 +40367,7 @@
       <c r="K389" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="L389" s="110" t="s">
+      <c r="L389" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M389" s="76">
@@ -40401,7 +40407,7 @@
       <c r="K390" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="L390" s="110" t="s">
+      <c r="L390" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M390" s="76">
@@ -40418,7 +40424,7 @@
       <c r="B391" s="18" t="s">
         <v>1766</v>
       </c>
-      <c r="C391" s="118">
+      <c r="C391" s="112">
         <v>2020</v>
       </c>
       <c r="D391" s="74"/>
@@ -40443,7 +40449,7 @@
       <c r="K391" s="75" t="s">
         <v>1209</v>
       </c>
-      <c r="L391" s="110" t="s">
+      <c r="L391" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M391" s="76">
@@ -40483,7 +40489,7 @@
       <c r="K392" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="L392" s="110" t="s">
+      <c r="L392" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M392" s="77" t="s">
@@ -40525,7 +40531,7 @@
       <c r="K393" s="20" t="s">
         <v>1780</v>
       </c>
-      <c r="L393" s="105" t="s">
+      <c r="L393" s="146" t="s">
         <v>1510</v>
       </c>
       <c r="M393" s="15"/>
@@ -40559,11 +40565,11 @@
       <c r="I394" s="23" t="s">
         <v>1699</v>
       </c>
-      <c r="J394" s="107"/>
+      <c r="J394" s="105"/>
       <c r="K394" s="25" t="s">
         <v>1712</v>
       </c>
-      <c r="L394" s="108" t="s">
+      <c r="L394" s="148" t="s">
         <v>1784</v>
       </c>
       <c r="M394" s="19"/>
@@ -40601,7 +40607,7 @@
       <c r="K395" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="L395" s="108" t="s">
+      <c r="L395" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M395" s="19"/>
@@ -40639,7 +40645,7 @@
       <c r="K396" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L396" s="108" t="s">
+      <c r="L396" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M396" s="19"/>
@@ -40677,7 +40683,7 @@
       <c r="K397" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L397" s="108" t="s">
+      <c r="L397" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M397" s="19"/>
@@ -40709,11 +40715,11 @@
       <c r="I398" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J398" s="107"/>
+      <c r="J398" s="105"/>
       <c r="K398" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="L398" s="108" t="s">
+      <c r="L398" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M398" s="19"/>
@@ -40745,11 +40751,11 @@
       <c r="I399" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J399" s="107"/>
+      <c r="J399" s="105"/>
       <c r="K399" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="L399" s="108" t="s">
+      <c r="L399" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M399" s="19"/>
@@ -40781,11 +40787,11 @@
       <c r="I400" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J400" s="107"/>
+      <c r="J400" s="105"/>
       <c r="K400" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="L400" s="108" t="s">
+      <c r="L400" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M400" s="19"/>
@@ -40817,11 +40823,11 @@
       <c r="I401" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J401" s="107"/>
+      <c r="J401" s="105"/>
       <c r="K401" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="L401" s="108" t="s">
+      <c r="L401" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M401" s="19"/>
@@ -40859,14 +40865,14 @@
       <c r="K402" s="25" t="s">
         <v>1809</v>
       </c>
-      <c r="L402" s="108" t="s">
+      <c r="L402" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M402" s="19"/>
       <c r="N402" s="19"/>
     </row>
     <row r="403" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A403" s="112">
+      <c r="A403" s="107">
         <v>390</v>
       </c>
       <c r="B403" s="18" t="s">
@@ -40891,11 +40897,11 @@
       <c r="I403" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J403" s="107"/>
+      <c r="J403" s="105"/>
       <c r="K403" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L403" s="108" t="s">
+      <c r="L403" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M403" s="19"/>
@@ -40927,11 +40933,11 @@
       <c r="I404" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J404" s="116"/>
+      <c r="J404" s="110"/>
       <c r="K404" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L404" s="108" t="s">
+      <c r="L404" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M404" s="32"/>
@@ -40963,11 +40969,11 @@
       <c r="I405" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J405" s="107"/>
+      <c r="J405" s="105"/>
       <c r="K405" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L405" s="108" t="s">
+      <c r="L405" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M405" s="19"/>
@@ -41005,7 +41011,7 @@
       <c r="K406" s="75" t="s">
         <v>1824</v>
       </c>
-      <c r="L406" s="110" t="s">
+      <c r="L406" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M406" s="89">
@@ -41047,7 +41053,7 @@
       <c r="K407" s="75" t="s">
         <v>1830</v>
       </c>
-      <c r="L407" s="119" t="s">
+      <c r="L407" s="152" t="s">
         <v>1831</v>
       </c>
       <c r="M407" s="89">
@@ -41064,7 +41070,7 @@
       <c r="B408" s="18" t="s">
         <v>1833</v>
       </c>
-      <c r="C408" s="120">
+      <c r="C408" s="113">
         <v>2020</v>
       </c>
       <c r="D408" s="52" t="s">
@@ -41085,16 +41091,16 @@
       <c r="I408" s="52" t="s">
         <v>1270</v>
       </c>
-      <c r="J408" s="121">
+      <c r="J408" s="114">
         <v>38223</v>
       </c>
       <c r="K408" s="57" t="s">
         <v>1824</v>
       </c>
-      <c r="L408" s="106" t="s">
+      <c r="L408" s="147" t="s">
         <v>1837</v>
       </c>
-      <c r="M408" s="121">
+      <c r="M408" s="114">
         <v>43701</v>
       </c>
       <c r="N408" s="52" t="s">
@@ -41127,11 +41133,11 @@
       <c r="I409" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J409" s="107"/>
+      <c r="J409" s="105"/>
       <c r="K409" s="25" t="s">
         <v>1843</v>
       </c>
-      <c r="L409" s="108" t="s">
+      <c r="L409" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M409" s="19"/>
@@ -41163,11 +41169,11 @@
       <c r="I410" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J410" s="107"/>
+      <c r="J410" s="105"/>
       <c r="K410" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L410" s="108" t="s">
+      <c r="L410" s="148" t="s">
         <v>1847</v>
       </c>
       <c r="M410" s="19"/>
@@ -41199,11 +41205,11 @@
       <c r="I411" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J411" s="107"/>
+      <c r="J411" s="105"/>
       <c r="K411" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L411" s="108" t="s">
+      <c r="L411" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M411" s="19"/>
@@ -41235,11 +41241,11 @@
       <c r="I412" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J412" s="107"/>
+      <c r="J412" s="105"/>
       <c r="K412" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="L412" s="108" t="s">
+      <c r="L412" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M412" s="19"/>
@@ -41271,11 +41277,11 @@
       <c r="I413" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J413" s="107"/>
+      <c r="J413" s="105"/>
       <c r="K413" s="25" t="s">
         <v>1858</v>
       </c>
-      <c r="L413" s="108" t="s">
+      <c r="L413" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M413" s="19"/>
@@ -41307,11 +41313,11 @@
       <c r="I414" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J414" s="107"/>
+      <c r="J414" s="105"/>
       <c r="K414" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="L414" s="108" t="s">
+      <c r="L414" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M414" s="19"/>
@@ -41343,11 +41349,11 @@
       <c r="I415" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J415" s="107"/>
+      <c r="J415" s="105"/>
       <c r="K415" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L415" s="108" t="s">
+      <c r="L415" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M415" s="19"/>
@@ -41379,11 +41385,11 @@
       <c r="I416" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J416" s="107"/>
+      <c r="J416" s="105"/>
       <c r="K416" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L416" s="108" t="s">
+      <c r="L416" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M416" s="19"/>
@@ -41415,11 +41421,11 @@
       <c r="I417" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J417" s="107"/>
+      <c r="J417" s="105"/>
       <c r="K417" s="25" t="s">
         <v>1871</v>
       </c>
-      <c r="L417" s="108" t="s">
+      <c r="L417" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M417" s="19"/>
@@ -41451,11 +41457,11 @@
       <c r="I418" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J418" s="107"/>
+      <c r="J418" s="105"/>
       <c r="K418" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="L418" s="105" t="s">
+      <c r="L418" s="146" t="s">
         <v>1518</v>
       </c>
       <c r="M418" s="19"/>
@@ -41491,7 +41497,7 @@
         <v>40049</v>
       </c>
       <c r="K419" s="74"/>
-      <c r="L419" s="110" t="s">
+      <c r="L419" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M419" s="76">
@@ -41533,10 +41539,10 @@
       <c r="K420" s="57" t="s">
         <v>1884</v>
       </c>
-      <c r="L420" s="106" t="s">
+      <c r="L420" s="147" t="s">
         <v>1837</v>
       </c>
-      <c r="M420" s="121">
+      <c r="M420" s="114">
         <v>42606</v>
       </c>
       <c r="N420" s="52" t="s">
@@ -41569,11 +41575,11 @@
       <c r="I421" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J421" s="107"/>
+      <c r="J421" s="105"/>
       <c r="K421" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="L421" s="108" t="s">
+      <c r="L421" s="148" t="s">
         <v>1889</v>
       </c>
       <c r="M421" s="19"/>
@@ -41605,11 +41611,11 @@
       <c r="I422" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J422" s="107"/>
+      <c r="J422" s="105"/>
       <c r="K422" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="L422" s="108" t="s">
+      <c r="L422" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M422" s="19"/>
@@ -41641,11 +41647,11 @@
       <c r="I423" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J423" s="107"/>
+      <c r="J423" s="105"/>
       <c r="K423" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L423" s="108" t="s">
+      <c r="L423" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M423" s="19"/>
@@ -41677,11 +41683,11 @@
       <c r="I424" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J424" s="107"/>
+      <c r="J424" s="105"/>
       <c r="K424" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L424" s="108" t="s">
+      <c r="L424" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M424" s="19"/>
@@ -41713,11 +41719,11 @@
       <c r="I425" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J425" s="107"/>
+      <c r="J425" s="105"/>
       <c r="K425" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L425" s="108" t="s">
+      <c r="L425" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M425" s="19"/>
@@ -41749,11 +41755,11 @@
       <c r="I426" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J426" s="107"/>
+      <c r="J426" s="105"/>
       <c r="K426" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L426" s="108" t="s">
+      <c r="L426" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M426" s="19"/>
@@ -41785,11 +41791,11 @@
       <c r="I427" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J427" s="107"/>
+      <c r="J427" s="105"/>
       <c r="K427" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L427" s="108" t="s">
+      <c r="L427" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M427" s="19"/>
@@ -41821,11 +41827,11 @@
       <c r="I428" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J428" s="107"/>
+      <c r="J428" s="105"/>
       <c r="K428" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L428" s="108" t="s">
+      <c r="L428" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M428" s="19"/>
@@ -41861,7 +41867,7 @@
       <c r="K429" s="57" t="s">
         <v>1209</v>
       </c>
-      <c r="L429" s="114" t="s">
+      <c r="L429" s="151" t="s">
         <v>926</v>
       </c>
       <c r="M429" s="58">
@@ -41872,7 +41878,7 @@
       </c>
     </row>
     <row r="430" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A430" s="112">
+      <c r="A430" s="107">
         <v>417</v>
       </c>
       <c r="B430" s="18" t="s">
@@ -41903,7 +41909,7 @@
       <c r="K430" s="75" t="s">
         <v>1919</v>
       </c>
-      <c r="L430" s="110" t="s">
+      <c r="L430" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M430" s="89">
@@ -41939,11 +41945,11 @@
       <c r="I431" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J431" s="116"/>
+      <c r="J431" s="110"/>
       <c r="K431" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="L431" s="108" t="s">
+      <c r="L431" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M431" s="32"/>
@@ -41975,11 +41981,11 @@
       <c r="I432" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J432" s="107"/>
+      <c r="J432" s="105"/>
       <c r="K432" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="L432" s="108" t="s">
+      <c r="L432" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M432" s="19"/>
@@ -42011,11 +42017,11 @@
       <c r="I433" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J433" s="107"/>
+      <c r="J433" s="105"/>
       <c r="K433" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="L433" s="108" t="s">
+      <c r="L433" s="148" t="s">
         <v>1889</v>
       </c>
       <c r="M433" s="19"/>
@@ -42047,11 +42053,11 @@
       <c r="I434" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J434" s="107"/>
+      <c r="J434" s="105"/>
       <c r="K434" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="L434" s="108" t="s">
+      <c r="L434" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M434" s="19"/>
@@ -42083,11 +42089,11 @@
       <c r="I435" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J435" s="107"/>
+      <c r="J435" s="105"/>
       <c r="K435" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L435" s="108" t="s">
+      <c r="L435" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M435" s="19"/>
@@ -42119,11 +42125,11 @@
       <c r="I436" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J436" s="107"/>
+      <c r="J436" s="105"/>
       <c r="K436" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="L436" s="108" t="s">
+      <c r="L436" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M436" s="19"/>
@@ -42155,11 +42161,11 @@
       <c r="I437" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J437" s="107"/>
+      <c r="J437" s="105"/>
       <c r="K437" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="L437" s="108" t="s">
+      <c r="L437" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M437" s="19"/>
@@ -42191,11 +42197,11 @@
       <c r="I438" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J438" s="107"/>
+      <c r="J438" s="105"/>
       <c r="K438" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="L438" s="108" t="s">
+      <c r="L438" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M438" s="19"/>
@@ -42227,11 +42233,11 @@
       <c r="I439" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J439" s="107"/>
+      <c r="J439" s="105"/>
       <c r="K439" s="25" t="s">
         <v>1951</v>
       </c>
-      <c r="L439" s="108" t="s">
+      <c r="L439" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M439" s="19"/>
@@ -42263,11 +42269,11 @@
       <c r="I440" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J440" s="107"/>
+      <c r="J440" s="105"/>
       <c r="K440" s="25" t="s">
         <v>1955</v>
       </c>
-      <c r="L440" s="108" t="s">
+      <c r="L440" s="148" t="s">
         <v>1889</v>
       </c>
       <c r="M440" s="19"/>
@@ -42299,11 +42305,11 @@
       <c r="I441" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J441" s="107"/>
+      <c r="J441" s="105"/>
       <c r="K441" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="L441" s="108" t="s">
+      <c r="L441" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M441" s="19"/>
@@ -42335,11 +42341,11 @@
       <c r="I442" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J442" s="107"/>
+      <c r="J442" s="105"/>
       <c r="K442" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L442" s="108" t="s">
+      <c r="L442" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M442" s="19"/>
@@ -42371,11 +42377,11 @@
       <c r="I443" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J443" s="107"/>
+      <c r="J443" s="105"/>
       <c r="K443" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="L443" s="108" t="s">
+      <c r="L443" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M443" s="19"/>
@@ -42407,11 +42413,11 @@
       <c r="I444" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J444" s="107"/>
+      <c r="J444" s="105"/>
       <c r="K444" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L444" s="108" t="s">
+      <c r="L444" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M444" s="19"/>
@@ -42449,7 +42455,7 @@
       <c r="K445" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L445" s="108" t="s">
+      <c r="L445" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M445" s="19"/>
@@ -42481,11 +42487,11 @@
       <c r="I446" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J446" s="107"/>
+      <c r="J446" s="105"/>
       <c r="K446" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="L446" s="108" t="s">
+      <c r="L446" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M446" s="19"/>
@@ -42523,7 +42529,7 @@
       <c r="K447" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="L447" s="108" t="s">
+      <c r="L447" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M447" s="19"/>
@@ -42555,11 +42561,11 @@
       <c r="I448" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J448" s="107"/>
+      <c r="J448" s="105"/>
       <c r="K448" s="25" t="s">
         <v>1209</v>
       </c>
-      <c r="L448" s="108" t="s">
+      <c r="L448" s="148" t="s">
         <v>1889</v>
       </c>
       <c r="M448" s="19"/>
@@ -42597,7 +42603,7 @@
       <c r="K449" s="25" t="s">
         <v>1437</v>
       </c>
-      <c r="L449" s="108" t="s">
+      <c r="L449" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M449" s="19"/>
@@ -42635,7 +42641,7 @@
       <c r="K450" s="25" t="s">
         <v>1988</v>
       </c>
-      <c r="L450" s="108" t="s">
+      <c r="L450" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M450" s="19"/>
@@ -42673,7 +42679,7 @@
       <c r="K451" s="25" t="s">
         <v>1992</v>
       </c>
-      <c r="L451" s="108" t="s">
+      <c r="L451" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M451" s="19"/>
@@ -42709,7 +42715,7 @@
       <c r="K452" s="57" t="s">
         <v>1951</v>
       </c>
-      <c r="L452" s="106" t="s">
+      <c r="L452" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M452" s="58">
@@ -42749,7 +42755,7 @@
       <c r="K453" s="57" t="s">
         <v>1955</v>
       </c>
-      <c r="L453" s="114" t="s">
+      <c r="L453" s="151" t="s">
         <v>2000</v>
       </c>
       <c r="M453" s="58">
@@ -42791,7 +42797,7 @@
       <c r="K454" s="75" t="s">
         <v>1437</v>
       </c>
-      <c r="L454" s="110" t="s">
+      <c r="L454" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M454" s="89">
@@ -42833,7 +42839,7 @@
       <c r="K455" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="L455" s="119" t="s">
+      <c r="L455" s="152" t="s">
         <v>1831</v>
       </c>
       <c r="M455" s="89">
@@ -42844,7 +42850,7 @@
       </c>
     </row>
     <row r="456" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A456" s="112">
+      <c r="A456" s="107">
         <v>443</v>
       </c>
       <c r="B456" s="18" t="s">
@@ -42869,11 +42875,11 @@
       <c r="I456" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J456" s="107"/>
+      <c r="J456" s="105"/>
       <c r="K456" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L456" s="108" t="s">
+      <c r="L456" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M456" s="19"/>
@@ -42905,11 +42911,11 @@
       <c r="I457" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="J457" s="122"/>
+      <c r="J457" s="115"/>
       <c r="K457" s="47" t="s">
         <v>642</v>
       </c>
-      <c r="L457" s="105" t="s">
+      <c r="L457" s="146" t="s">
         <v>1518</v>
       </c>
       <c r="M457" s="46"/>
@@ -42941,11 +42947,11 @@
       <c r="I458" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J458" s="107"/>
+      <c r="J458" s="105"/>
       <c r="K458" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="L458" s="108" t="s">
+      <c r="L458" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M458" s="19"/>
@@ -42977,11 +42983,11 @@
       <c r="I459" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J459" s="107"/>
+      <c r="J459" s="105"/>
       <c r="K459" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="L459" s="108" t="s">
+      <c r="L459" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M459" s="19"/>
@@ -43013,11 +43019,11 @@
       <c r="I460" s="23" t="s">
         <v>2030</v>
       </c>
-      <c r="J460" s="107"/>
+      <c r="J460" s="105"/>
       <c r="K460" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="L460" s="108" t="s">
+      <c r="L460" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M460" s="19"/>
@@ -43049,11 +43055,11 @@
       <c r="I461" s="23" t="s">
         <v>2036</v>
       </c>
-      <c r="J461" s="107"/>
+      <c r="J461" s="105"/>
       <c r="K461" s="25" t="s">
         <v>2037</v>
       </c>
-      <c r="L461" s="108" t="s">
+      <c r="L461" s="148" t="s">
         <v>2038</v>
       </c>
       <c r="M461" s="19"/>
@@ -43091,7 +43097,7 @@
       <c r="K462" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="L462" s="108" t="s">
+      <c r="L462" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M462" s="19"/>
@@ -43123,11 +43129,11 @@
       <c r="I463" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J463" s="107"/>
+      <c r="J463" s="105"/>
       <c r="K463" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="L463" s="108" t="s">
+      <c r="L463" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M463" s="19"/>
@@ -43159,11 +43165,11 @@
       <c r="I464" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J464" s="107"/>
+      <c r="J464" s="105"/>
       <c r="K464" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="L464" s="108" t="s">
+      <c r="L464" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M464" s="19"/>
@@ -43201,7 +43207,7 @@
       <c r="K465" s="75" t="s">
         <v>2051</v>
       </c>
-      <c r="L465" s="110" t="s">
+      <c r="L465" s="149" t="s">
         <v>1272</v>
       </c>
       <c r="M465" s="89">
@@ -43243,7 +43249,7 @@
       <c r="K466" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="L466" s="108" t="s">
+      <c r="L466" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M466" s="19"/>
@@ -43275,11 +43281,11 @@
       <c r="I467" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J467" s="107"/>
+      <c r="J467" s="105"/>
       <c r="K467" s="25" t="s">
         <v>2059</v>
       </c>
-      <c r="L467" s="108" t="s">
+      <c r="L467" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M467" s="19"/>
@@ -43311,11 +43317,11 @@
       <c r="I468" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J468" s="107"/>
+      <c r="J468" s="105"/>
       <c r="K468" s="25" t="s">
         <v>2059</v>
       </c>
-      <c r="L468" s="108" t="s">
+      <c r="L468" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M468" s="19"/>
@@ -43353,7 +43359,7 @@
       <c r="K469" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="L469" s="106" t="s">
+      <c r="L469" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M469" s="58">
@@ -43389,13 +43395,13 @@
       <c r="I470" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J470" s="109">
+      <c r="J470" s="106">
         <v>40414</v>
       </c>
       <c r="K470" s="25" t="s">
         <v>2072</v>
       </c>
-      <c r="L470" s="108" t="s">
+      <c r="L470" s="148" t="s">
         <v>2073</v>
       </c>
       <c r="M470" s="19"/>
@@ -43427,13 +43433,13 @@
       <c r="I471" s="23" t="s">
         <v>1270</v>
       </c>
-      <c r="J471" s="109">
+      <c r="J471" s="106">
         <v>40414</v>
       </c>
       <c r="K471" s="25" t="s">
         <v>1568</v>
       </c>
-      <c r="L471" s="123" t="s">
+      <c r="L471" s="153" t="s">
         <v>2077</v>
       </c>
       <c r="M471" s="19"/>
@@ -43465,11 +43471,11 @@
       <c r="I472" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J472" s="107"/>
+      <c r="J472" s="105"/>
       <c r="K472" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L472" s="108" t="s">
+      <c r="L472" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M472" s="19"/>
@@ -43501,11 +43507,11 @@
       <c r="I473" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J473" s="107"/>
+      <c r="J473" s="105"/>
       <c r="K473" s="25" t="s">
         <v>906</v>
       </c>
-      <c r="L473" s="108" t="s">
+      <c r="L473" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M473" s="19"/>
@@ -43543,7 +43549,7 @@
       <c r="K474" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="L474" s="108" t="s">
+      <c r="L474" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M474" s="19"/>
@@ -43575,11 +43581,11 @@
       <c r="I475" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J475" s="107"/>
+      <c r="J475" s="105"/>
       <c r="K475" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L475" s="108" t="s">
+      <c r="L475" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M475" s="19"/>
@@ -43611,11 +43617,11 @@
       <c r="I476" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J476" s="107"/>
+      <c r="J476" s="105"/>
       <c r="K476" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="L476" s="108" t="s">
+      <c r="L476" s="148" t="s">
         <v>1847</v>
       </c>
       <c r="M476" s="19"/>
@@ -43647,11 +43653,11 @@
       <c r="I477" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J477" s="107"/>
+      <c r="J477" s="105"/>
       <c r="K477" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L477" s="108" t="s">
+      <c r="L477" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M477" s="19"/>
@@ -43683,11 +43689,11 @@
       <c r="I478" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J478" s="107"/>
+      <c r="J478" s="105"/>
       <c r="K478" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="L478" s="108" t="s">
+      <c r="L478" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M478" s="19"/>
@@ -43719,11 +43725,11 @@
       <c r="I479" s="23" t="s">
         <v>2102</v>
       </c>
-      <c r="J479" s="107"/>
+      <c r="J479" s="105"/>
       <c r="K479" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="L479" s="108" t="s">
+      <c r="L479" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M479" s="19"/>
@@ -43761,7 +43767,7 @@
       <c r="K480" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="L480" s="108" t="s">
+      <c r="L480" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M480" s="19"/>
@@ -43799,14 +43805,14 @@
       <c r="K481" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="L481" s="108" t="s">
+      <c r="L481" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M481" s="19"/>
       <c r="N481" s="19"/>
     </row>
     <row r="482" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A482" s="112">
+      <c r="A482" s="107">
         <v>469</v>
       </c>
       <c r="B482" s="18" t="s">
@@ -43831,11 +43837,11 @@
       <c r="I482" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J482" s="107"/>
+      <c r="J482" s="105"/>
       <c r="K482" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="L482" s="108" t="s">
+      <c r="L482" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M482" s="19"/>
@@ -43855,7 +43861,7 @@
       <c r="E483" s="31" t="s">
         <v>679</v>
       </c>
-      <c r="F483" s="124" t="s">
+      <c r="F483" s="116" t="s">
         <v>2113</v>
       </c>
       <c r="G483" s="30" t="s">
@@ -43867,11 +43873,11 @@
       <c r="I483" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J483" s="116"/>
+      <c r="J483" s="110"/>
       <c r="K483" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="L483" s="108" t="s">
+      <c r="L483" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M483" s="32"/>
@@ -43903,11 +43909,11 @@
       <c r="I484" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J484" s="107"/>
+      <c r="J484" s="105"/>
       <c r="K484" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L484" s="108" t="s">
+      <c r="L484" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M484" s="19"/>
@@ -43939,11 +43945,11 @@
       <c r="I485" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J485" s="107"/>
+      <c r="J485" s="105"/>
       <c r="K485" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="L485" s="108" t="s">
+      <c r="L485" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M485" s="19"/>
@@ -43981,7 +43987,7 @@
       <c r="K486" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="L486" s="108" t="s">
+      <c r="L486" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M486" s="19"/>
@@ -44019,7 +44025,7 @@
       <c r="K487" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="L487" s="108" t="s">
+      <c r="L487" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M487" s="19"/>
@@ -44051,11 +44057,11 @@
       <c r="I488" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J488" s="107"/>
+      <c r="J488" s="105"/>
       <c r="K488" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="L488" s="108" t="s">
+      <c r="L488" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M488" s="19"/>
@@ -44089,13 +44095,13 @@
       <c r="I489" s="23" t="s">
         <v>1400</v>
       </c>
-      <c r="J489" s="109">
+      <c r="J489" s="106">
         <v>44766</v>
       </c>
       <c r="K489" s="25" t="s">
         <v>2134</v>
       </c>
-      <c r="L489" s="108" t="s">
+      <c r="L489" s="148" t="s">
         <v>1622</v>
       </c>
       <c r="M489" s="19"/>
@@ -44127,11 +44133,11 @@
       <c r="I490" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J490" s="107"/>
+      <c r="J490" s="105"/>
       <c r="K490" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="L490" s="105" t="s">
+      <c r="L490" s="146" t="s">
         <v>1518</v>
       </c>
       <c r="M490" s="19"/>
@@ -44163,11 +44169,11 @@
       <c r="I491" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J491" s="107"/>
+      <c r="J491" s="105"/>
       <c r="K491" s="25" t="s">
         <v>1343</v>
       </c>
-      <c r="L491" s="108" t="s">
+      <c r="L491" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M491" s="19"/>
@@ -44203,7 +44209,7 @@
       <c r="K492" s="25" t="s">
         <v>1343</v>
       </c>
-      <c r="L492" s="108" t="s">
+      <c r="L492" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M492" s="19"/>
@@ -44239,7 +44245,7 @@
       <c r="K493" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L493" s="108" t="s">
+      <c r="L493" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M493" s="19"/>
@@ -44271,11 +44277,11 @@
       <c r="I494" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J494" s="107"/>
+      <c r="J494" s="105"/>
       <c r="K494" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L494" s="108" t="s">
+      <c r="L494" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M494" s="19"/>
@@ -44307,11 +44313,11 @@
       <c r="I495" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J495" s="107"/>
+      <c r="J495" s="105"/>
       <c r="K495" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L495" s="108" t="s">
+      <c r="L495" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M495" s="19"/>
@@ -44343,11 +44349,11 @@
       <c r="I496" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J496" s="107"/>
+      <c r="J496" s="105"/>
       <c r="K496" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="L496" s="108" t="s">
+      <c r="L496" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M496" s="19"/>
@@ -44379,11 +44385,11 @@
       <c r="I497" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J497" s="107"/>
+      <c r="J497" s="105"/>
       <c r="K497" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="L497" s="108" t="s">
+      <c r="L497" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M497" s="19"/>
@@ -44419,7 +44425,7 @@
       <c r="K498" s="62" t="s">
         <v>917</v>
       </c>
-      <c r="L498" s="111" t="s">
+      <c r="L498" s="150" t="s">
         <v>2162</v>
       </c>
       <c r="M498" s="61" t="s">
@@ -44459,7 +44465,7 @@
       <c r="K499" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L499" s="111" t="s">
+      <c r="L499" s="150" t="s">
         <v>1500</v>
       </c>
       <c r="M499" s="63">
@@ -44483,7 +44489,7 @@
       <c r="E500" s="72" t="s">
         <v>679</v>
       </c>
-      <c r="F500" s="125" t="s">
+      <c r="F500" s="117" t="s">
         <v>2170</v>
       </c>
       <c r="G500" s="71" t="s">
@@ -44499,7 +44505,7 @@
       <c r="K500" s="75" t="s">
         <v>705</v>
       </c>
-      <c r="L500" s="110" t="s">
+      <c r="L500" s="149" t="s">
         <v>2172</v>
       </c>
       <c r="M500" s="77" t="s">
@@ -44541,7 +44547,7 @@
       <c r="K501" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="L501" s="110" t="s">
+      <c r="L501" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M501" s="76">
@@ -44577,11 +44583,11 @@
       <c r="I502" s="23" t="s">
         <v>2184</v>
       </c>
-      <c r="J502" s="107"/>
+      <c r="J502" s="105"/>
       <c r="K502" s="25" t="s">
         <v>2185</v>
       </c>
-      <c r="L502" s="108" t="s">
+      <c r="L502" s="148" t="s">
         <v>1889</v>
       </c>
       <c r="M502" s="19"/>
@@ -44613,11 +44619,11 @@
       <c r="I503" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J503" s="107"/>
+      <c r="J503" s="105"/>
       <c r="K503" s="25" t="s">
         <v>2185</v>
       </c>
-      <c r="L503" s="108" t="s">
+      <c r="L503" s="148" t="s">
         <v>1889</v>
       </c>
       <c r="M503" s="19"/>
@@ -44653,7 +44659,7 @@
       <c r="K504" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="L504" s="106" t="s">
+      <c r="L504" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M504" s="58">
@@ -44689,11 +44695,11 @@
       <c r="I505" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J505" s="107"/>
+      <c r="J505" s="105"/>
       <c r="K505" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="L505" s="108" t="s">
+      <c r="L505" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M505" s="19"/>
@@ -44725,11 +44731,11 @@
       <c r="I506" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J506" s="107"/>
+      <c r="J506" s="105"/>
       <c r="K506" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="L506" s="108" t="s">
+      <c r="L506" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M506" s="19"/>
@@ -44761,18 +44767,18 @@
       <c r="I507" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J507" s="107"/>
+      <c r="J507" s="105"/>
       <c r="K507" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="L507" s="108" t="s">
+      <c r="L507" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M507" s="19"/>
       <c r="N507" s="19"/>
     </row>
     <row r="508" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A508" s="112">
+      <c r="A508" s="107">
         <v>495</v>
       </c>
       <c r="B508" s="18" t="s">
@@ -44797,11 +44803,11 @@
       <c r="I508" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J508" s="107"/>
+      <c r="J508" s="105"/>
       <c r="K508" s="25" t="s">
         <v>2205</v>
       </c>
-      <c r="L508" s="108" t="s">
+      <c r="L508" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M508" s="19"/>
@@ -44837,10 +44843,10 @@
       <c r="K509" s="57" t="s">
         <v>2209</v>
       </c>
-      <c r="L509" s="106" t="s">
+      <c r="L509" s="147" t="s">
         <v>1837</v>
       </c>
-      <c r="M509" s="115">
+      <c r="M509" s="109">
         <v>43336</v>
       </c>
       <c r="N509" s="65" t="s">
@@ -44873,11 +44879,11 @@
       <c r="I510" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J510" s="107"/>
+      <c r="J510" s="105"/>
       <c r="K510" s="25" t="s">
         <v>813</v>
       </c>
-      <c r="L510" s="108" t="s">
+      <c r="L510" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M510" s="19"/>
@@ -44913,7 +44919,7 @@
       <c r="K511" s="75" t="s">
         <v>637</v>
       </c>
-      <c r="L511" s="110" t="s">
+      <c r="L511" s="149" t="s">
         <v>1562</v>
       </c>
       <c r="M511" s="76">
@@ -44949,11 +44955,11 @@
       <c r="I512" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J512" s="107"/>
+      <c r="J512" s="105"/>
       <c r="K512" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L512" s="108" t="s">
+      <c r="L512" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M512" s="19"/>
@@ -44985,11 +44991,11 @@
       <c r="I513" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J513" s="107"/>
+      <c r="J513" s="105"/>
       <c r="K513" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="L513" s="108" t="s">
+      <c r="L513" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M513" s="19"/>
@@ -45023,11 +45029,11 @@
       <c r="I514" s="23" t="s">
         <v>1987</v>
       </c>
-      <c r="J514" s="107"/>
+      <c r="J514" s="105"/>
       <c r="K514" s="25" t="s">
         <v>2228</v>
       </c>
-      <c r="L514" s="108" t="s">
+      <c r="L514" s="148" t="s">
         <v>1510</v>
       </c>
       <c r="M514" s="19"/>
@@ -45059,11 +45065,11 @@
       <c r="I515" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J515" s="107"/>
+      <c r="J515" s="105"/>
       <c r="K515" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="L515" s="108" t="s">
+      <c r="L515" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M515" s="19"/>
@@ -45095,11 +45101,11 @@
       <c r="I516" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J516" s="107"/>
+      <c r="J516" s="105"/>
       <c r="K516" s="25" t="s">
         <v>2235</v>
       </c>
-      <c r="L516" s="108" t="s">
+      <c r="L516" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M516" s="19"/>
@@ -45131,11 +45137,11 @@
       <c r="I517" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J517" s="107"/>
+      <c r="J517" s="105"/>
       <c r="K517" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="L517" s="108" t="s">
+      <c r="L517" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M517" s="19"/>
@@ -45167,11 +45173,11 @@
       <c r="I518" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J518" s="107"/>
+      <c r="J518" s="105"/>
       <c r="K518" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L518" s="108" t="s">
+      <c r="L518" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M518" s="19"/>
@@ -45203,11 +45209,11 @@
       <c r="I519" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J519" s="107"/>
+      <c r="J519" s="105"/>
       <c r="K519" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L519" s="108" t="s">
+      <c r="L519" s="148" t="s">
         <v>1847</v>
       </c>
       <c r="M519" s="19"/>
@@ -45239,11 +45245,11 @@
       <c r="I520" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J520" s="107"/>
+      <c r="J520" s="105"/>
       <c r="K520" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="L520" s="108" t="s">
+      <c r="L520" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M520" s="19"/>
@@ -45275,11 +45281,11 @@
       <c r="I521" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J521" s="107"/>
+      <c r="J521" s="105"/>
       <c r="K521" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="L521" s="108" t="s">
+      <c r="L521" s="148" t="s">
         <v>1518</v>
       </c>
       <c r="M521" s="19"/>
@@ -45311,11 +45317,11 @@
       <c r="I522" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J522" s="107"/>
+      <c r="J522" s="105"/>
       <c r="K522" s="25" t="s">
         <v>1343</v>
       </c>
-      <c r="L522" s="108" t="s">
+      <c r="L522" s="148" t="s">
         <v>1514</v>
       </c>
       <c r="M522" s="19"/>
@@ -45351,7 +45357,7 @@
       <c r="K523" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="L523" s="106" t="s">
+      <c r="L523" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M523" s="58">
@@ -45391,7 +45397,7 @@
       <c r="K524" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="L524" s="106" t="s">
+      <c r="L524" s="147" t="s">
         <v>1500</v>
       </c>
       <c r="M524" s="58">
@@ -45431,7 +45437,7 @@
       <c r="K525" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="L525" s="114" t="s">
+      <c r="L525" s="151" t="s">
         <v>2261</v>
       </c>
       <c r="M525" s="58">
@@ -45467,13 +45473,13 @@
       <c r="I526" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J526" s="126">
+      <c r="J526" s="118">
         <v>40049</v>
       </c>
       <c r="K526" s="57" t="s">
         <v>845</v>
       </c>
-      <c r="L526" s="114" t="s">
+      <c r="L526" s="151" t="s">
         <v>2000</v>
       </c>
       <c r="M526" s="58">
@@ -45484,7 +45490,7 @@
       </c>
     </row>
     <row r="527" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A527" s="112">
+      <c r="A527" s="107">
         <v>514</v>
       </c>
       <c r="B527" s="18" t="s">
@@ -45513,7 +45519,7 @@
       <c r="K527" s="57" t="s">
         <v>2271</v>
       </c>
-      <c r="L527" s="114" t="s">
+      <c r="L527" s="151" t="s">
         <v>2000</v>
       </c>
       <c r="M527" s="58">
@@ -45524,87 +45530,87 @@
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A528" s="129" t="s">
+      <c r="A528" s="119" t="s">
         <v>2273</v>
       </c>
-      <c r="B528" s="129"/>
-      <c r="C528" s="129"/>
-      <c r="D528" s="129"/>
-      <c r="E528" s="129"/>
-      <c r="F528" s="129"/>
-      <c r="G528" s="129"/>
-      <c r="H528" s="129"/>
-      <c r="I528" s="129"/>
-      <c r="J528" s="129"/>
-      <c r="K528" s="129"/>
-      <c r="L528" s="129"/>
+      <c r="B528" s="119"/>
+      <c r="C528" s="119"/>
+      <c r="D528" s="119"/>
+      <c r="E528" s="119"/>
+      <c r="F528" s="119"/>
+      <c r="G528" s="119"/>
+      <c r="H528" s="119"/>
+      <c r="I528" s="119"/>
+      <c r="J528" s="119"/>
+      <c r="K528" s="119"/>
+      <c r="L528" s="119"/>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A529" s="130" t="s">
+      <c r="A529" s="120" t="s">
         <v>2274</v>
       </c>
-      <c r="B529" s="130"/>
-      <c r="C529" s="130"/>
-      <c r="D529" s="130"/>
-      <c r="E529" s="130"/>
-      <c r="F529" s="130"/>
-      <c r="G529" s="130"/>
-      <c r="H529" s="130"/>
-      <c r="I529" s="130"/>
-      <c r="J529" s="130"/>
-      <c r="K529" s="130"/>
-      <c r="L529" s="130"/>
+      <c r="B529" s="120"/>
+      <c r="C529" s="120"/>
+      <c r="D529" s="120"/>
+      <c r="E529" s="120"/>
+      <c r="F529" s="120"/>
+      <c r="G529" s="120"/>
+      <c r="H529" s="120"/>
+      <c r="I529" s="120"/>
+      <c r="J529" s="120"/>
+      <c r="K529" s="120"/>
+      <c r="L529" s="120"/>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A530" s="130" t="s">
+      <c r="A530" s="120" t="s">
         <v>2275</v>
       </c>
-      <c r="B530" s="130"/>
-      <c r="C530" s="130"/>
-      <c r="D530" s="130"/>
-      <c r="E530" s="130"/>
-      <c r="F530" s="130"/>
-      <c r="G530" s="130"/>
-      <c r="H530" s="130"/>
-      <c r="I530" s="130"/>
-      <c r="J530" s="130"/>
-      <c r="K530" s="130"/>
-      <c r="L530" s="130"/>
+      <c r="B530" s="120"/>
+      <c r="C530" s="120"/>
+      <c r="D530" s="120"/>
+      <c r="E530" s="120"/>
+      <c r="F530" s="120"/>
+      <c r="G530" s="120"/>
+      <c r="H530" s="120"/>
+      <c r="I530" s="120"/>
+      <c r="J530" s="120"/>
+      <c r="K530" s="120"/>
+      <c r="L530" s="120"/>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A531" s="130" t="s">
+      <c r="A531" s="120" t="s">
         <v>2276</v>
       </c>
-      <c r="B531" s="130"/>
-      <c r="C531" s="130"/>
-      <c r="D531" s="130"/>
-      <c r="E531" s="130"/>
-      <c r="F531" s="130"/>
-      <c r="G531" s="130"/>
-      <c r="H531" s="130"/>
-      <c r="I531" s="130"/>
-      <c r="J531" s="130"/>
-      <c r="K531" s="130"/>
-      <c r="L531" s="130"/>
+      <c r="B531" s="120"/>
+      <c r="C531" s="120"/>
+      <c r="D531" s="120"/>
+      <c r="E531" s="120"/>
+      <c r="F531" s="120"/>
+      <c r="G531" s="120"/>
+      <c r="H531" s="120"/>
+      <c r="I531" s="120"/>
+      <c r="J531" s="120"/>
+      <c r="K531" s="120"/>
+      <c r="L531" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A107:O107"/>
+    <mergeCell ref="A109:O109"/>
+    <mergeCell ref="A199:O199"/>
+    <mergeCell ref="A251:O251"/>
     <mergeCell ref="A528:L528"/>
     <mergeCell ref="A529:L529"/>
     <mergeCell ref="A530:L530"/>
     <mergeCell ref="A531:L531"/>
     <mergeCell ref="A303:O303"/>
     <mergeCell ref="A326:O326"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A107:O107"/>
-    <mergeCell ref="A109:O109"/>
-    <mergeCell ref="A199:O199"/>
-    <mergeCell ref="A251:O251"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A40:O40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://drive.google.com/drive/folders/1pALSyBitoj3QrlH3jU_oYPlu5J4qjW9y?usp=sharing" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
